--- a/reactjs/React 16 - The Complete Guide/Timesheet.xlsx
+++ b/reactjs/React 16 - The Complete Guide/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipothamse.COPART\git\docs\reactjs\React 16 - The Complete Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63C48F-A0FF-45A0-A2D9-24C6DC01DA4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC6CEB8-AFD2-4D30-A049-D0C492611315}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5985" xr2:uid="{0A474607-024F-417D-B984-B80057D184F8}"/>
   </bookViews>
@@ -30,1136 +30,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="382">
   <si>
     <t>1. Getting Started</t>
   </si>
   <si>
-    <t>1. Introduction.mp4</t>
-  </si>
-  <si>
-    <t>2. What is React.mp4</t>
-  </si>
-  <si>
-    <t>3. Real-World SPAs &amp; React Web Apps.mp4</t>
-  </si>
-  <si>
-    <t>5. Writing our First React Code.mp4</t>
-  </si>
-  <si>
-    <t>6. Why Should we Choose React.mp4</t>
-  </si>
-  <si>
-    <t>7. React Alternatives.mp4</t>
-  </si>
-  <si>
-    <t>8. Understanding Single Page Applications and Multi Page Applications.mp4</t>
-  </si>
-  <si>
-    <t>9. Course Outline.mp4</t>
-  </si>
-  <si>
-    <t>10. How to get the Most out of This Course.mp4</t>
-  </si>
-  <si>
     <t>2. Refreshing Next Generation JavaScript (Optional)</t>
   </si>
   <si>
-    <t>1. Module Introduction.mp4</t>
-  </si>
-  <si>
-    <t>2. Understanding let and const.mp4</t>
-  </si>
-  <si>
-    <t>3. Arrow Functions.mp4</t>
-  </si>
-  <si>
-    <t>4. Exports and Imports.mp4</t>
-  </si>
-  <si>
-    <t>5. Understanding Classes.mp4</t>
-  </si>
-  <si>
-    <t>6. Classes, Properties and Methods.mp4</t>
-  </si>
-  <si>
-    <t>7. The Spread &amp; Rest Operator.mp4</t>
-  </si>
-  <si>
-    <t>8. Destructuring.mp4</t>
-  </si>
-  <si>
-    <t>9. Reference and Primitive Types Refresher.mp4</t>
-  </si>
-  <si>
-    <t>10. Refreshing Array Functions.mp4</t>
-  </si>
-  <si>
-    <t>11. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>3. Understanding the Base Features &amp; Syntax</t>
   </si>
   <si>
-    <t>2. The Build Workflow.mp4</t>
-  </si>
-  <si>
-    <t>3. Using Create React App.mp4</t>
-  </si>
-  <si>
-    <t>4. Understanding the Folder Structure.mp4</t>
-  </si>
-  <si>
-    <t>5. Understanding Component Basics.mp4</t>
-  </si>
-  <si>
-    <t>6. Understanding JSX.mp4</t>
-  </si>
-  <si>
-    <t>7. JSX Restrictions.mp4</t>
-  </si>
-  <si>
-    <t>8. Creating a Functional Component.mp4</t>
-  </si>
-  <si>
-    <t>10. Working with Components &amp; Re-Using Them.mp4</t>
-  </si>
-  <si>
-    <t>11. Outputting Dynamic Content.mp4</t>
-  </si>
-  <si>
-    <t>12. Working with Props.mp4</t>
-  </si>
-  <si>
-    <t>13. Understanding the Children Property.mp4</t>
-  </si>
-  <si>
-    <t>14. Understanding &amp; Using State.mp4</t>
-  </si>
-  <si>
-    <t>16. Handling Events with Methods.mp4</t>
-  </si>
-  <si>
-    <t>18. Manipulating the State.mp4</t>
-  </si>
-  <si>
-    <t>19. Functional (Stateless) vs class (Stateful) Components.mp4</t>
-  </si>
-  <si>
-    <t>20. Passing Method References Between Components.mp4</t>
-  </si>
-  <si>
-    <t>21. Adding Two Way Binding.mp4</t>
-  </si>
-  <si>
-    <t>22. Adding Styling with Stylesheets.mp4</t>
-  </si>
-  <si>
-    <t>23. Working with Inline Styles.mp4</t>
-  </si>
-  <si>
     <t>4. Working with Lists and Conditionals</t>
   </si>
   <si>
-    <t>2. Rendering Content Conditionally.mp4</t>
-  </si>
-  <si>
-    <t>3. Handling Dynamic Content The JavaScript Way.mp4</t>
-  </si>
-  <si>
-    <t>4. Outputting Lists (Intro).mp4</t>
-  </si>
-  <si>
-    <t>5. Outputting Lists.mp4</t>
-  </si>
-  <si>
-    <t>6. Lists &amp; State.mp4</t>
-  </si>
-  <si>
-    <t>7. Updating State Immutably.mp4</t>
-  </si>
-  <si>
-    <t>8. Lists &amp; Keys.mp4</t>
-  </si>
-  <si>
-    <t>9. Flexible Lists.mp4</t>
-  </si>
-  <si>
-    <t>10. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>5. Styling React Components &amp; Elements</t>
   </si>
   <si>
-    <t>2. Outlining the Problem Set.mp4</t>
-  </si>
-  <si>
-    <t>3. Setting Styles Dynamically.mp4</t>
-  </si>
-  <si>
-    <t>4. Setting Class Names Dynamically.mp4</t>
-  </si>
-  <si>
-    <t>5. Adding and Using Radium.mp4</t>
-  </si>
-  <si>
-    <t>6. Using Radium for Media Queries.mp4</t>
-  </si>
-  <si>
-    <t>7. Enabling &amp; Using CSS Modules.mp4</t>
-  </si>
-  <si>
-    <t>9. Adding Pseudo Selectors.mp4</t>
-  </si>
-  <si>
-    <t>10. Working with Media Queries.mp4</t>
-  </si>
-  <si>
     <t>6. Debugging React Apps</t>
   </si>
   <si>
-    <t>2. Understanding Error Messages.mp4</t>
-  </si>
-  <si>
-    <t>3. Finding Logical Errors by using Dev Tools &amp; Sourcemaps.mp4</t>
-  </si>
-  <si>
-    <t>4. Working with the React Developer Tools.mp4</t>
-  </si>
-  <si>
-    <t>5. Using Error Boundaries (React 16+).mp4</t>
-  </si>
-  <si>
-    <t>6. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>7. Diving Deeper into Components &amp; React Internals</t>
   </si>
   <si>
-    <t>2. A Better Project Structure.mp4</t>
-  </si>
-  <si>
-    <t>3. Splitting an App Into Components.mp4</t>
-  </si>
-  <si>
-    <t>4. Comparing Stateless and Stateful Components.mp4</t>
-  </si>
-  <si>
-    <t>5. Understanding the Component Lifecycle.mp4</t>
-  </si>
-  <si>
-    <t>6. Converting Stateless to Stateful Components.mp4</t>
-  </si>
-  <si>
-    <t>7. Component Creation Lifecycle in Action.mp4</t>
-  </si>
-  <si>
-    <t>9. Component Updating Lifecycle Hooks.mp4</t>
-  </si>
-  <si>
-    <t>10. Component Updating Lifecycle in Action.mp4</t>
-  </si>
-  <si>
-    <t>11. Updating Lifecycle Hooks (Triggered by State Changes).mp4</t>
-  </si>
-  <si>
-    <t>12. Performance Gains with PureComponents.mp4</t>
-  </si>
-  <si>
-    <t>13. How React Updates the App &amp; Component Tree.mp4</t>
-  </si>
-  <si>
-    <t>14. Understanding React's DOM Updating Strategy.mp4</t>
-  </si>
-  <si>
-    <t>15. Returning Adjacent Elements (React 16+).mp4</t>
-  </si>
-  <si>
-    <t>17. Understanding Higher Order Components (HOCs).mp4</t>
-  </si>
-  <si>
-    <t>19. A Different Approach to HOCs.mp4</t>
-  </si>
-  <si>
-    <t>20. Passing Unknown Props.mp4</t>
-  </si>
-  <si>
-    <t>21. Using setState Correctly.mp4</t>
-  </si>
-  <si>
-    <t>22. Validating Props.mp4</t>
-  </si>
-  <si>
-    <t>24. Using References (ref).mp4</t>
-  </si>
-  <si>
-    <t>25. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>8. A Real App The Burger Builder (Basic Version)</t>
   </si>
   <si>
-    <t>2. Planning an App in React - Core Steps.mp4</t>
-  </si>
-  <si>
-    <t>3. Planning our App - Layout and Component Tree.mp4</t>
-  </si>
-  <si>
-    <t>4. Planning the State.mp4</t>
-  </si>
-  <si>
-    <t>5. Setting up the Project.mp4</t>
-  </si>
-  <si>
-    <t>6. Creating a Layout Component.mp4</t>
-  </si>
-  <si>
-    <t>7. Starting Implementation of The Burger Builder Container.mp4</t>
-  </si>
-  <si>
-    <t>8. Adding a Dynamic Ingredient Component.mp4</t>
-  </si>
-  <si>
-    <t>9. Adding Prop Type Validation.mp4</t>
-  </si>
-  <si>
-    <t>10. Starting the Burger Component.mp4</t>
-  </si>
-  <si>
-    <t>11. Outputting Burger Ingredients Dynamically.mp4</t>
-  </si>
-  <si>
-    <t>12. Calculating the Ingredient Sum Dynamically.mp4</t>
-  </si>
-  <si>
-    <t>13. Adding the Build Control Component.mp4</t>
-  </si>
-  <si>
-    <t>14. Outputting Multiple Build Controls.mp4</t>
-  </si>
-  <si>
-    <t>15. Connecting State to Build Controls.mp4</t>
-  </si>
-  <si>
-    <t>16. Removing Ingredients Safely.mp4</t>
-  </si>
-  <si>
-    <t>17. Displaying and Updating the Burger Price.mp4</t>
-  </si>
-  <si>
-    <t>18. Adding the Order Button.mp4</t>
-  </si>
-  <si>
-    <t>19. Creating the Order Summary Modal.mp4</t>
-  </si>
-  <si>
-    <t>20. Showing &amp; Hiding the Modal (with Animation!).mp4</t>
-  </si>
-  <si>
-    <t>21. Implementing the Backdrop Component.mp4</t>
-  </si>
-  <si>
-    <t>22. Adding a Custom Button Component.mp4</t>
-  </si>
-  <si>
-    <t>23. Implementing the Button Component.mp4</t>
-  </si>
-  <si>
-    <t>24. Adding the Price to the Order Summary.mp4</t>
-  </si>
-  <si>
-    <t>25. Adding a Toolbar.mp4</t>
-  </si>
-  <si>
-    <t>26. Using a Logo in our Application.mp4</t>
-  </si>
-  <si>
-    <t>27. Adding Reusable Navigation Items.mp4</t>
-  </si>
-  <si>
-    <t>28. Creating a Responsive Sidedrawer.mp4</t>
-  </si>
-  <si>
-    <t>29. Working on Responsive Adjustments.mp4</t>
-  </si>
-  <si>
-    <t>30. More about Responsive Adjustments.mp4</t>
-  </si>
-  <si>
-    <t>31. Reusing the Backdrop.mp4</t>
-  </si>
-  <si>
-    <t>32. Adding a Sidedrawer Toggle Button.mp4</t>
-  </si>
-  <si>
-    <t>33. Adding a Hamburger Icon.mp4</t>
-  </si>
-  <si>
-    <t>34. Improving the App - Introduction.mp4</t>
-  </si>
-  <si>
-    <t>35. Prop Type Validation.mp4</t>
-  </si>
-  <si>
-    <t>36. Improving Performance.mp4</t>
-  </si>
-  <si>
-    <t>37. Using Component Lifecycle Methods.mp4</t>
-  </si>
-  <si>
-    <t>38. Changing the Folder Structure.mp4</t>
-  </si>
-  <si>
-    <t>39. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>9. Reaching out to the Web (Http  Ajax)</t>
   </si>
   <si>
-    <t>2. Understanding Http Requests in React.mp4</t>
-  </si>
-  <si>
-    <t>3. Understanding our Project and Introducing Axios.mp4</t>
-  </si>
-  <si>
-    <t>4. Creating a Http Request to GET Data.mp4</t>
-  </si>
-  <si>
-    <t>5. Rendering Fetched Data to the Screen.mp4</t>
-  </si>
-  <si>
-    <t>6. Transforming Data.mp4</t>
-  </si>
-  <si>
-    <t>7. Making a Post Selectable.mp4</t>
-  </si>
-  <si>
-    <t>8. Fetching Data on Update (without Creating Infinite Loops).mp4</t>
-  </si>
-  <si>
-    <t>9. POSTing Data to the Server.mp4</t>
-  </si>
-  <si>
-    <t>10. Sending a DELETE Request.mp4</t>
-  </si>
-  <si>
-    <t>11. Fixing a Bug.mp4</t>
-  </si>
-  <si>
-    <t>12. Handling Errors Locally.mp4</t>
-  </si>
-  <si>
-    <t>13. Adding Interceptors to Execute Code Globally.mp4</t>
-  </si>
-  <si>
-    <t>15. Setting a Default Global Configuration for Axios.mp4</t>
-  </si>
-  <si>
-    <t>16. Creating and Using Axios Instances.mp4</t>
-  </si>
-  <si>
-    <t>17. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>10. Burger Builder Project Accessing a Server</t>
   </si>
   <si>
-    <t>2. Creating the Firebase Project.mp4</t>
-  </si>
-  <si>
-    <t>3. Creating the Axios Instance.mp4</t>
-  </si>
-  <si>
-    <t>4. Sending a POST Request.mp4</t>
-  </si>
-  <si>
-    <t>5. Displaying a Spinner while Sending a Request.mp4</t>
-  </si>
-  <si>
-    <t>6. Handling Errors.mp4</t>
-  </si>
-  <si>
-    <t>7. Retrieving Data from the Backend.mp4</t>
-  </si>
-  <si>
-    <t>8. Removing Old Interceptors.mp4</t>
-  </si>
-  <si>
     <t>11. Multi-Page-Feeling in a Single-Page-App Routing</t>
   </si>
   <si>
-    <t>2. Routing and SPAs.mp4</t>
-  </si>
-  <si>
-    <t>3. Setting Up Links.mp4</t>
-  </si>
-  <si>
-    <t>4. Setting Up the Router Package.mp4</t>
-  </si>
-  <si>
-    <t>6. Preparing the Project For Routing.mp4</t>
-  </si>
-  <si>
-    <t>7. Setting Up and Rendering Routes.mp4</t>
-  </si>
-  <si>
-    <t>8. Rendering Components for Routes.mp4</t>
-  </si>
-  <si>
-    <t>9. Switching Between Pages.mp4</t>
-  </si>
-  <si>
-    <t>10. Using Links to Switch Pages.mp4</t>
-  </si>
-  <si>
-    <t>11. Using Routing-Related Props.mp4</t>
-  </si>
-  <si>
-    <t>12. The withRouter HOC &amp; Route Props.mp4</t>
-  </si>
-  <si>
-    <t>13. Absolute vs Relative Paths.mp4</t>
-  </si>
-  <si>
-    <t>15. Styling the Active Route.mp4</t>
-  </si>
-  <si>
-    <t>16. Passing Route Parameters.mp4</t>
-  </si>
-  <si>
-    <t>17. Extracting Route Parameters.mp4</t>
-  </si>
-  <si>
-    <t>19. Using Switch to Load a Single Route.mp4</t>
-  </si>
-  <si>
-    <t>20. Navigating Programmatically.mp4</t>
-  </si>
-  <si>
-    <t>21. Additional Information Regarding Active Links.mp4</t>
-  </si>
-  <si>
-    <t>22. Understanding Nested Routes.mp4</t>
-  </si>
-  <si>
-    <t>23. Creating Dynamic Nested Routes.mp4</t>
-  </si>
-  <si>
-    <t>24. Redirecting Requests.mp4</t>
-  </si>
-  <si>
-    <t>25. Conditional Redirects.mp4</t>
-  </si>
-  <si>
-    <t>26. Using the History Prop to Redirect (Replace).mp4</t>
-  </si>
-  <si>
-    <t>27. Working with Guards.mp4</t>
-  </si>
-  <si>
-    <t>28. Handling the 404 Case (Unknown Routes).mp4</t>
-  </si>
-  <si>
-    <t>29. Loading Routes Lazily.mp4</t>
-  </si>
-  <si>
-    <t>30. Routing and Server Deployment.mp4</t>
-  </si>
-  <si>
-    <t>32. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>12. Adding Routing to our Burger Project</t>
   </si>
   <si>
-    <t>2. Building the Checkout Container.mp4</t>
-  </si>
-  <si>
-    <t>3. Setting Up Routing &amp; Routes.mp4</t>
-  </si>
-  <si>
-    <t>4. Navigating to the Checkout Page.mp4</t>
-  </si>
-  <si>
-    <t>5. Navigating Back &amp; To Next Page.mp4</t>
-  </si>
-  <si>
-    <t>6. Passing Ingredients via Query Params.mp4</t>
-  </si>
-  <si>
-    <t>7. Navigating to the Contact Data Component.mp4</t>
-  </si>
-  <si>
-    <t>8. Order Submission &amp; Passing Data Between Pages.mp4</t>
-  </si>
-  <si>
-    <t>9. Adding an Orders Page.mp4</t>
-  </si>
-  <si>
-    <t>10. Implementing Navigation Links.mp4</t>
-  </si>
-  <si>
-    <t>11. Fetching Orders.mp4</t>
-  </si>
-  <si>
-    <t>12. Outputting the Orders.mp4</t>
-  </si>
-  <si>
-    <t>13. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>13. Forms and Form Validation</t>
   </si>
   <si>
-    <t>2. Analyzing the App.mp4</t>
-  </si>
-  <si>
-    <t>3. Creating a Custom Dynamic Input Component.mp4</t>
-  </si>
-  <si>
-    <t>4. Setting Up a JS Config for the Form.mp4</t>
-  </si>
-  <si>
-    <t>5. Dynamically Create Inputs based on JS Config.mp4</t>
-  </si>
-  <si>
-    <t>6. Adding a Dropdown Component.mp4</t>
-  </si>
-  <si>
-    <t>7. Handling User Input.mp4</t>
-  </si>
-  <si>
-    <t>8. Handling Form Submission.mp4</t>
-  </si>
-  <si>
-    <t>9. Adding Custom Form Validation.mp4</t>
-  </si>
-  <si>
-    <t>10. Fixing a Common Validation Gotcha.mp4</t>
-  </si>
-  <si>
-    <t>11. Adding Validation Feedback.mp4</t>
-  </si>
-  <si>
-    <t>12. Improving Visual Feedback.mp4</t>
-  </si>
-  <si>
-    <t>14. Handling Overall Form Validity.mp4</t>
-  </si>
-  <si>
-    <t>15. Fixing a Bug.mp4</t>
-  </si>
-  <si>
-    <t>16. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>14. Redux</t>
   </si>
   <si>
-    <t>2. Understanding State.mp4</t>
-  </si>
-  <si>
-    <t>3. The Complexity of Managing State.mp4</t>
-  </si>
-  <si>
-    <t>4. Understanding the Redux Flow.mp4</t>
-  </si>
-  <si>
-    <t>5. Setting Up Reducer and Store.mp4</t>
-  </si>
-  <si>
-    <t>6. Dispatching Actions.mp4</t>
-  </si>
-  <si>
-    <t>7. Adding Subscriptions.mp4</t>
-  </si>
-  <si>
-    <t>8. Connecting React to Redux.mp4</t>
-  </si>
-  <si>
-    <t>9. Connecting the Store to React.mp4</t>
-  </si>
-  <si>
-    <t>10. Dispatching Actions from within the Component.mp4</t>
-  </si>
-  <si>
-    <t>12. Passing and Retrieving Data with Action.mp4</t>
-  </si>
-  <si>
-    <t>13. Switch-Case in the Reducer.mp4</t>
-  </si>
-  <si>
-    <t>14. Updating State Immutably.mp4</t>
-  </si>
-  <si>
-    <t>15. Updating Arrays Immutably.mp4</t>
-  </si>
-  <si>
-    <t>17. Outsourcing Action Types.mp4</t>
-  </si>
-  <si>
-    <t>18. Combining Multiple Reducers.mp4</t>
-  </si>
-  <si>
-    <t>19. Understanding State Types.mp4</t>
-  </si>
-  <si>
-    <t>21. Combining Local UI State and Redux.mp4</t>
-  </si>
-  <si>
-    <t>22. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>15. Adding Redux to our Project</t>
   </si>
   <si>
-    <t>2. Installing Redux and React Redux.mp4</t>
-  </si>
-  <si>
-    <t>3. Basic Redux Setup.mp4</t>
-  </si>
-  <si>
-    <t>4. Finishing the Reducer for Ingredients.mp4</t>
-  </si>
-  <si>
-    <t>5. Connecting the Burger Builder Container to our Store.mp4</t>
-  </si>
-  <si>
-    <t>6. Working on the Total Price Calculation.mp4</t>
-  </si>
-  <si>
-    <t>7. Redux &amp; UI State.mp4</t>
-  </si>
-  <si>
-    <t>8. Adjusting Checkout and Contact Data.mp4</t>
-  </si>
-  <si>
-    <t>9. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>16. Redux Advanced</t>
   </si>
   <si>
-    <t>2. Adding  Middleware.mp4</t>
-  </si>
-  <si>
-    <t>3. Using the Redux Devtools.mp4</t>
-  </si>
-  <si>
-    <t>4. Executing Asynchronous Code - Introduction.mp4</t>
-  </si>
-  <si>
-    <t>5. Introducing Action Creators.mp4</t>
-  </si>
-  <si>
-    <t>6. Action Creators &amp; Async Code.mp4</t>
-  </si>
-  <si>
-    <t>7. Handling Asynchronous Code.mp4</t>
-  </si>
-  <si>
-    <t>8. Restructuring Actions.mp4</t>
-  </si>
-  <si>
-    <t>9. Where to Put Data Transforming Logic.mp4</t>
-  </si>
-  <si>
-    <t>10. Using Action Creators and Get State.mp4</t>
-  </si>
-  <si>
-    <t>11. Using Utility Functions.mp4</t>
-  </si>
-  <si>
-    <t>12. A Leaner Switch Case Statement.mp4</t>
-  </si>
-  <si>
-    <t>13. An Alternative Folder Structure.mp4</t>
-  </si>
-  <si>
-    <t>14. Diving Much Deeper.mp4</t>
-  </si>
-  <si>
-    <t>15. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>17. Redux Advanced Burger Project</t>
   </si>
   <si>
-    <t>2. Installing the Redux Devtools.mp4</t>
-  </si>
-  <si>
-    <t>3. Preparing the Folder Structure.mp4</t>
-  </si>
-  <si>
-    <t>4. Creating Action Creators.mp4</t>
-  </si>
-  <si>
-    <t>5. Executing Asynchronous Code.mp4</t>
-  </si>
-  <si>
-    <t>6. Fetching Ingredients Asynchronously.mp4</t>
-  </si>
-  <si>
-    <t>7. Initializing Ingredients in the BurgerBuilder.mp4</t>
-  </si>
-  <si>
-    <t>8. Changing the Order of our Ingredients Manually.mp4</t>
-  </si>
-  <si>
-    <t>9. Adding Order Actions.mp4</t>
-  </si>
-  <si>
-    <t>10. Connecting Contact Data Container &amp; Actions.mp4</t>
-  </si>
-  <si>
-    <t>11. The Order Reducer.mp4</t>
-  </si>
-  <si>
-    <t>12. Working on Order Actions.mp4</t>
-  </si>
-  <si>
-    <t>13. Redirect to Improve UX.mp4</t>
-  </si>
-  <si>
-    <t>14. Combining Reducers.mp4</t>
-  </si>
-  <si>
-    <t>15. Handling Purchases &amp; Updating the UI.mp4</t>
-  </si>
-  <si>
-    <t>16. Resetting the Price after Purchases.mp4</t>
-  </si>
-  <si>
-    <t>17. Fetching Orders (via Redux).mp4</t>
-  </si>
-  <si>
-    <t>18. Checking our Implemented Functionalities.mp4</t>
-  </si>
-  <si>
-    <t>19. Refactoring Reducers.mp4</t>
-  </si>
-  <si>
-    <t>20. Refactoring Reducers Continued.mp4</t>
-  </si>
-  <si>
-    <t>21. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>18. Adding Authentication to our Burger Project</t>
   </si>
   <si>
-    <t>2. Understanding Authentication in Single Page Applications.mp4</t>
-  </si>
-  <si>
-    <t>3. Required App Adjustments.mp4</t>
-  </si>
-  <si>
-    <t>4. Adding an Auth Form.mp4</t>
-  </si>
-  <si>
-    <t>5. Adding Actions.mp4</t>
-  </si>
-  <si>
-    <t>6. Getting a Token from the Backend.mp4</t>
-  </si>
-  <si>
-    <t>7. Adding Sign-In.mp4</t>
-  </si>
-  <si>
-    <t>8. Storing the Token.mp4</t>
-  </si>
-  <si>
-    <t>9. Adding a Spinner.mp4</t>
-  </si>
-  <si>
-    <t>10. Logging Users Out.mp4</t>
-  </si>
-  <si>
-    <t>11. Accessing Protected Resources.mp4</t>
-  </si>
-  <si>
-    <t>12. Updating the UI Depending on Auth State.mp4</t>
-  </si>
-  <si>
-    <t>13. Adding a Logout Link.mp4</t>
-  </si>
-  <si>
-    <t>14. Forwarding Unauthenticated Users.mp4</t>
-  </si>
-  <si>
-    <t>15. Redirecting the User to the Checkout Page.mp4</t>
-  </si>
-  <si>
-    <t>16. Persistent Auth State with localStorage.mp4</t>
-  </si>
-  <si>
-    <t>17. Fixing Connect + Routing Errors.mp4</t>
-  </si>
-  <si>
-    <t>18. Ensuring App Security.mp4</t>
-  </si>
-  <si>
-    <t>19. Guarding Routes.mp4</t>
-  </si>
-  <si>
-    <t>20. Displaying User Specific Orders.mp4</t>
-  </si>
-  <si>
     <t>19. Improving our Burger Project</t>
   </si>
   <si>
-    <t>2. Fixing the Redirect to the Frontpage.mp4</t>
-  </si>
-  <si>
-    <t>3. Using updateObject in the Entire App.mp4</t>
-  </si>
-  <si>
-    <t>4. Sharing the Validation Method.mp4</t>
-  </si>
-  <si>
-    <t>5. Using Environment Variables.mp4</t>
-  </si>
-  <si>
-    <t>6. Removing console.log()s.mp4</t>
-  </si>
-  <si>
-    <t>7. Adding Lazy Loading.mp4</t>
-  </si>
-  <si>
-    <t>8. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>20. Testing</t>
   </si>
   <si>
-    <t>2. What is Testing.mp4</t>
-  </si>
-  <si>
-    <t>3. Required Testing Tools.mp4</t>
-  </si>
-  <si>
-    <t>4. What To Test.mp4</t>
-  </si>
-  <si>
-    <t>5. Writing our First Test.mp4</t>
-  </si>
-  <si>
-    <t>6. Testing Components Continued.mp4</t>
-  </si>
-  <si>
-    <t>7. Jest and Enzyme Documentations.mp4</t>
-  </si>
-  <si>
-    <t>8. Testing Components Correctly.mp4</t>
-  </si>
-  <si>
-    <t>9. Testing Containers.mp4</t>
-  </si>
-  <si>
-    <t>10. How to Test Redux.mp4</t>
-  </si>
-  <si>
     <t>21. Deploying the App to the Web</t>
   </si>
   <si>
-    <t>2. Deployment Steps.mp4</t>
-  </si>
-  <si>
-    <t>3. Building the Project.mp4</t>
-  </si>
-  <si>
-    <t>4. Example Deploying on Firebase.mp4</t>
-  </si>
-  <si>
-    <t>5. Wrap Up.mp4</t>
-  </si>
-  <si>
     <t>22. Bonus Working with Webpack</t>
   </si>
   <si>
-    <t>2. Introducing Webpack.mp4</t>
-  </si>
-  <si>
-    <t>3. How Webpack works.mp4</t>
-  </si>
-  <si>
-    <t>4. Basic Workflow Requirements.mp4</t>
-  </si>
-  <si>
-    <t>5. Project &amp; npm Setup.mp4</t>
-  </si>
-  <si>
-    <t>6. Creating a Basic Folder &amp; File Structure.mp4</t>
-  </si>
-  <si>
-    <t>7. Creating the Basic React Application.mp4</t>
-  </si>
-  <si>
-    <t>8. Installing Production Dependencies.mp4</t>
-  </si>
-  <si>
-    <t>9. Setting Up the Basic Webpack Config.mp4</t>
-  </si>
-  <si>
-    <t>10. Adding File Rules.mp4</t>
-  </si>
-  <si>
-    <t>11. Introducing Babel.mp4</t>
-  </si>
-  <si>
-    <t>12. Adding CSS File Support.mp4</t>
-  </si>
-  <si>
-    <t>13. Creating Rules for Images.mp4</t>
-  </si>
-  <si>
-    <t>14. Lazy Loading.mp4</t>
-  </si>
-  <si>
-    <t>15. Injecting the Script into the index.html File.mp4</t>
-  </si>
-  <si>
-    <t>16. Creating the Production Workflow.mp4</t>
-  </si>
-  <si>
     <t>23. Bonus Next.js</t>
   </si>
   <si>
-    <t>2. Understanding Server Side Rendering.mp4</t>
-  </si>
-  <si>
-    <t>3. Setting Up a Project.mp4</t>
-  </si>
-  <si>
-    <t>4. Understanding the Basics.mp4</t>
-  </si>
-  <si>
-    <t>5. Next.js &amp; Components &amp; Pages.mp4</t>
-  </si>
-  <si>
-    <t>6. Styling our App in Next.js.mp4</t>
-  </si>
-  <si>
-    <t>7. Handling (404) Errors.mp4</t>
-  </si>
-  <si>
-    <t>8. A Special Lifecyle Hook.mp4</t>
-  </si>
-  <si>
-    <t>9. Deploying our App.mp4</t>
-  </si>
-  <si>
     <t>24. Bonus Animations in React Apps</t>
   </si>
   <si>
-    <t>2. Preparing the Demo Project.mp4</t>
-  </si>
-  <si>
-    <t>3. Using CSS Transitions.mp4</t>
-  </si>
-  <si>
-    <t>4. Using CSS Animations.mp4</t>
-  </si>
-  <si>
-    <t>5. CSS  Transition &amp; Animations Limitations.mp4</t>
-  </si>
-  <si>
-    <t>6. Using ReactTransitionGroup.mp4</t>
-  </si>
-  <si>
-    <t>7. Using the Transition Component.mp4</t>
-  </si>
-  <si>
-    <t>8. Wrapping the Transition Component.mp4</t>
-  </si>
-  <si>
-    <t>9. Animation Timings.mp4</t>
-  </si>
-  <si>
-    <t>10. Transition Events.mp4</t>
-  </si>
-  <si>
-    <t>11. The CSSTransition Component.mp4</t>
-  </si>
-  <si>
-    <t>12. Customizing CSS Classnames.mp4</t>
-  </si>
-  <si>
-    <t>13. Animating Lists.mp4</t>
-  </si>
-  <si>
-    <t>14. Alternative Animation Packages.mp4</t>
-  </si>
-  <si>
     <t>25. Bonus A Brief Introduction to Redux Saga</t>
   </si>
   <si>
-    <t>2. Installing Redux Saga.mp4</t>
-  </si>
-  <si>
-    <t>3. Creating our First Saga.mp4</t>
-  </si>
-  <si>
-    <t>4. Hooking the Saga Up (to the Store and Actions).mp4</t>
-  </si>
-  <si>
-    <t>5. Moving Logic from the Action Creator to a Saga.mp4</t>
-  </si>
-  <si>
-    <t>6. Moving More Logic Into Sagas.mp4</t>
-  </si>
-  <si>
-    <t>7. Handling Authentication with a Saga.mp4</t>
-  </si>
-  <si>
-    <t>8. Handling Auto-Sign-In with a Saga.mp4</t>
-  </si>
-  <si>
-    <t>9. Moving the BurgerBuilder Side Effects into a Saga.mp4</t>
-  </si>
-  <si>
-    <t>10. Moving the Orders Side Effects into Sagas.mp4</t>
-  </si>
-  <si>
-    <t>11. Why Sagas can be Helpful.mp4</t>
-  </si>
-  <si>
-    <t>12. Diving Deeper into Sagas.mp4</t>
-  </si>
-  <si>
     <t>26. Bonus Building the Burger CSS</t>
   </si>
   <si>
-    <t>1. Building the Burger CSS Code.mp4</t>
-  </si>
-  <si>
     <t>27. Next Steps and Course Roundup</t>
   </si>
   <si>
-    <t>2. React Rocks! Where to find more Examples.mp4</t>
-  </si>
-  <si>
-    <t>3. More Inspiration Real-World Projects Built with React.mp4</t>
-  </si>
-  <si>
-    <t>4. Static React Apps with Gatsby.js.mp4</t>
-  </si>
-  <si>
-    <t>5. Introducing React Native.mp4</t>
-  </si>
-  <si>
-    <t>6. Component Libraries (Example Material UI).mp4</t>
-  </si>
-  <si>
-    <t>7. Smaller Apps with Preact.mp4</t>
-  </si>
-  <si>
-    <t>8. Comparing React with Preact.mp4</t>
-  </si>
-  <si>
-    <t>9. Congratulations.mp4</t>
-  </si>
-  <si>
     <t>Chapter</t>
   </si>
   <si>
@@ -1173,6 +126,1056 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>1. Introduction</t>
+  </si>
+  <si>
+    <t>2. What is React</t>
+  </si>
+  <si>
+    <t>3. Real-World SPAs &amp; React Web Apps</t>
+  </si>
+  <si>
+    <t>5. Writing our First React Code</t>
+  </si>
+  <si>
+    <t>6. Why Should we Choose React</t>
+  </si>
+  <si>
+    <t>7. React Alternatives</t>
+  </si>
+  <si>
+    <t>8. Understanding Single Page Applications and Multi Page Applications</t>
+  </si>
+  <si>
+    <t>9. Course Outline</t>
+  </si>
+  <si>
+    <t>10. How to get the Most out of This Course</t>
+  </si>
+  <si>
+    <t>1. Module Introduction</t>
+  </si>
+  <si>
+    <t>2. Understanding let and const</t>
+  </si>
+  <si>
+    <t>3. Arrow Functions</t>
+  </si>
+  <si>
+    <t>4. Exports and Imports</t>
+  </si>
+  <si>
+    <t>5. Understanding Classes</t>
+  </si>
+  <si>
+    <t>6. Classes, Properties and Methods</t>
+  </si>
+  <si>
+    <t>7. The Spread &amp; Rest Operator</t>
+  </si>
+  <si>
+    <t>8. Destructuring</t>
+  </si>
+  <si>
+    <t>9. Reference and Primitive Types Refresher</t>
+  </si>
+  <si>
+    <t>10. Refreshing Array Functions</t>
+  </si>
+  <si>
+    <t>11. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. The Build Workflow</t>
+  </si>
+  <si>
+    <t>3. Using Create React App</t>
+  </si>
+  <si>
+    <t>4. Understanding the Folder Structure</t>
+  </si>
+  <si>
+    <t>5. Understanding Component Basics</t>
+  </si>
+  <si>
+    <t>6. Understanding JSX</t>
+  </si>
+  <si>
+    <t>7. JSX Restrictions</t>
+  </si>
+  <si>
+    <t>8. Creating a Functional Component</t>
+  </si>
+  <si>
+    <t>10. Working with Components &amp; Re-Using Them</t>
+  </si>
+  <si>
+    <t>11. Outputting Dynamic Content</t>
+  </si>
+  <si>
+    <t>12. Working with Props</t>
+  </si>
+  <si>
+    <t>13. Understanding the Children Property</t>
+  </si>
+  <si>
+    <t>14. Understanding &amp; Using State</t>
+  </si>
+  <si>
+    <t>16. Handling Events with Methods</t>
+  </si>
+  <si>
+    <t>18. Manipulating the State</t>
+  </si>
+  <si>
+    <t>19. Functional (Stateless) vs class (Stateful) Components</t>
+  </si>
+  <si>
+    <t>20. Passing Method References Between Components</t>
+  </si>
+  <si>
+    <t>21. Adding Two Way Binding</t>
+  </si>
+  <si>
+    <t>22. Adding Styling with Stylesheets</t>
+  </si>
+  <si>
+    <t>23. Working with Inline Styles</t>
+  </si>
+  <si>
+    <t>2. Rendering Content Conditionally</t>
+  </si>
+  <si>
+    <t>3. Handling Dynamic Content The JavaScript Way</t>
+  </si>
+  <si>
+    <t>4. Outputting Lists (Intro)</t>
+  </si>
+  <si>
+    <t>5. Outputting Lists</t>
+  </si>
+  <si>
+    <t>6. Lists &amp; State</t>
+  </si>
+  <si>
+    <t>7. Updating State Immutably</t>
+  </si>
+  <si>
+    <t>8. Lists &amp; Keys</t>
+  </si>
+  <si>
+    <t>9. Flexible Lists</t>
+  </si>
+  <si>
+    <t>10. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Outlining the Problem Set</t>
+  </si>
+  <si>
+    <t>3. Setting Styles Dynamically</t>
+  </si>
+  <si>
+    <t>4. Setting Class Names Dynamically</t>
+  </si>
+  <si>
+    <t>5. Adding and Using Radium</t>
+  </si>
+  <si>
+    <t>6. Using Radium for Media Queries</t>
+  </si>
+  <si>
+    <t>7. Enabling &amp; Using CSS Modules</t>
+  </si>
+  <si>
+    <t>9. Adding Pseudo Selectors</t>
+  </si>
+  <si>
+    <t>10. Working with Media Queries</t>
+  </si>
+  <si>
+    <t>2. Understanding Error Messages</t>
+  </si>
+  <si>
+    <t>3. Finding Logical Errors by using Dev Tools &amp; Sourcemaps</t>
+  </si>
+  <si>
+    <t>4. Working with the React Developer Tools</t>
+  </si>
+  <si>
+    <t>5. Using Error Boundaries (React 16+)</t>
+  </si>
+  <si>
+    <t>6. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. A Better Project Structure</t>
+  </si>
+  <si>
+    <t>3. Splitting an App Into Components</t>
+  </si>
+  <si>
+    <t>4. Comparing Stateless and Stateful Components</t>
+  </si>
+  <si>
+    <t>5. Understanding the Component Lifecycle</t>
+  </si>
+  <si>
+    <t>6. Converting Stateless to Stateful Components</t>
+  </si>
+  <si>
+    <t>7. Component Creation Lifecycle in Action</t>
+  </si>
+  <si>
+    <t>9. Component Updating Lifecycle Hooks</t>
+  </si>
+  <si>
+    <t>10. Component Updating Lifecycle in Action</t>
+  </si>
+  <si>
+    <t>11. Updating Lifecycle Hooks (Triggered by State Changes)</t>
+  </si>
+  <si>
+    <t>12. Performance Gains with PureComponents</t>
+  </si>
+  <si>
+    <t>13. How React Updates the App &amp; Component Tree</t>
+  </si>
+  <si>
+    <t>14. Understanding React's DOM Updating Strategy</t>
+  </si>
+  <si>
+    <t>15. Returning Adjacent Elements (React 16+)</t>
+  </si>
+  <si>
+    <t>17. Understanding Higher Order Components (HOCs)</t>
+  </si>
+  <si>
+    <t>19. A Different Approach to HOCs</t>
+  </si>
+  <si>
+    <t>20. Passing Unknown Props</t>
+  </si>
+  <si>
+    <t>21. Using setState Correctly</t>
+  </si>
+  <si>
+    <t>22. Validating Props</t>
+  </si>
+  <si>
+    <t>24. Using References (ref)</t>
+  </si>
+  <si>
+    <t>25. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Planning an App in React - Core Steps</t>
+  </si>
+  <si>
+    <t>3. Planning our App - Layout and Component Tree</t>
+  </si>
+  <si>
+    <t>4. Planning the State</t>
+  </si>
+  <si>
+    <t>5. Setting up the Project</t>
+  </si>
+  <si>
+    <t>6. Creating a Layout Component</t>
+  </si>
+  <si>
+    <t>7. Starting Implementation of The Burger Builder Container</t>
+  </si>
+  <si>
+    <t>8. Adding a Dynamic Ingredient Component</t>
+  </si>
+  <si>
+    <t>9. Adding Prop Type Validation</t>
+  </si>
+  <si>
+    <t>10. Starting the Burger Component</t>
+  </si>
+  <si>
+    <t>11. Outputting Burger Ingredients Dynamically</t>
+  </si>
+  <si>
+    <t>12. Calculating the Ingredient Sum Dynamically</t>
+  </si>
+  <si>
+    <t>13. Adding the Build Control Component</t>
+  </si>
+  <si>
+    <t>14. Outputting Multiple Build Controls</t>
+  </si>
+  <si>
+    <t>15. Connecting State to Build Controls</t>
+  </si>
+  <si>
+    <t>16. Removing Ingredients Safely</t>
+  </si>
+  <si>
+    <t>17. Displaying and Updating the Burger Price</t>
+  </si>
+  <si>
+    <t>18. Adding the Order Button</t>
+  </si>
+  <si>
+    <t>19. Creating the Order Summary Modal</t>
+  </si>
+  <si>
+    <t>20. Showing &amp; Hiding the Modal (with Animation!)</t>
+  </si>
+  <si>
+    <t>21. Implementing the Backdrop Component</t>
+  </si>
+  <si>
+    <t>22. Adding a Custom Button Component</t>
+  </si>
+  <si>
+    <t>23. Implementing the Button Component</t>
+  </si>
+  <si>
+    <t>24. Adding the Price to the Order Summary</t>
+  </si>
+  <si>
+    <t>25. Adding a Toolbar</t>
+  </si>
+  <si>
+    <t>26. Using a Logo in our Application</t>
+  </si>
+  <si>
+    <t>27. Adding Reusable Navigation Items</t>
+  </si>
+  <si>
+    <t>28. Creating a Responsive Sidedrawer</t>
+  </si>
+  <si>
+    <t>29. Working on Responsive Adjustments</t>
+  </si>
+  <si>
+    <t>30. More about Responsive Adjustments</t>
+  </si>
+  <si>
+    <t>31. Reusing the Backdrop</t>
+  </si>
+  <si>
+    <t>32. Adding a Sidedrawer Toggle Button</t>
+  </si>
+  <si>
+    <t>33. Adding a Hamburger Icon</t>
+  </si>
+  <si>
+    <t>34. Improving the App - Introduction</t>
+  </si>
+  <si>
+    <t>35. Prop Type Validation</t>
+  </si>
+  <si>
+    <t>36. Improving Performance</t>
+  </si>
+  <si>
+    <t>37. Using Component Lifecycle Methods</t>
+  </si>
+  <si>
+    <t>38. Changing the Folder Structure</t>
+  </si>
+  <si>
+    <t>39. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Understanding Http Requests in React</t>
+  </si>
+  <si>
+    <t>3. Understanding our Project and Introducing Axios</t>
+  </si>
+  <si>
+    <t>4. Creating a Http Request to GET Data</t>
+  </si>
+  <si>
+    <t>5. Rendering Fetched Data to the Screen</t>
+  </si>
+  <si>
+    <t>6. Transforming Data</t>
+  </si>
+  <si>
+    <t>7. Making a Post Selectable</t>
+  </si>
+  <si>
+    <t>8. Fetching Data on Update (without Creating Infinite Loops)</t>
+  </si>
+  <si>
+    <t>9. POSTing Data to the Server</t>
+  </si>
+  <si>
+    <t>10. Sending a DELETE Request</t>
+  </si>
+  <si>
+    <t>11. Fixing a Bug</t>
+  </si>
+  <si>
+    <t>12. Handling Errors Locally</t>
+  </si>
+  <si>
+    <t>13. Adding Interceptors to Execute Code Globally</t>
+  </si>
+  <si>
+    <t>15. Setting a Default Global Configuration for Axios</t>
+  </si>
+  <si>
+    <t>16. Creating and Using Axios Instances</t>
+  </si>
+  <si>
+    <t>17. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Creating the Firebase Project</t>
+  </si>
+  <si>
+    <t>3. Creating the Axios Instance</t>
+  </si>
+  <si>
+    <t>4. Sending a POST Request</t>
+  </si>
+  <si>
+    <t>5. Displaying a Spinner while Sending a Request</t>
+  </si>
+  <si>
+    <t>6. Handling Errors</t>
+  </si>
+  <si>
+    <t>7. Retrieving Data from the Backend</t>
+  </si>
+  <si>
+    <t>8. Removing Old Interceptors</t>
+  </si>
+  <si>
+    <t>2. Routing and SPAs</t>
+  </si>
+  <si>
+    <t>3. Setting Up Links</t>
+  </si>
+  <si>
+    <t>4. Setting Up the Router Package</t>
+  </si>
+  <si>
+    <t>6. Preparing the Project For Routing</t>
+  </si>
+  <si>
+    <t>7. Setting Up and Rendering Routes</t>
+  </si>
+  <si>
+    <t>8. Rendering Components for Routes</t>
+  </si>
+  <si>
+    <t>9. Switching Between Pages</t>
+  </si>
+  <si>
+    <t>10. Using Links to Switch Pages</t>
+  </si>
+  <si>
+    <t>11. Using Routing-Related Props</t>
+  </si>
+  <si>
+    <t>12. The withRouter HOC &amp; Route Props</t>
+  </si>
+  <si>
+    <t>13. Absolute vs Relative Paths</t>
+  </si>
+  <si>
+    <t>15. Styling the Active Route</t>
+  </si>
+  <si>
+    <t>16. Passing Route Parameters</t>
+  </si>
+  <si>
+    <t>17. Extracting Route Parameters</t>
+  </si>
+  <si>
+    <t>19. Using Switch to Load a Single Route</t>
+  </si>
+  <si>
+    <t>20. Navigating Programmatically</t>
+  </si>
+  <si>
+    <t>21. Additional Information Regarding Active Links</t>
+  </si>
+  <si>
+    <t>22. Understanding Nested Routes</t>
+  </si>
+  <si>
+    <t>23. Creating Dynamic Nested Routes</t>
+  </si>
+  <si>
+    <t>24. Redirecting Requests</t>
+  </si>
+  <si>
+    <t>25. Conditional Redirects</t>
+  </si>
+  <si>
+    <t>26. Using the History Prop to Redirect (Replace)</t>
+  </si>
+  <si>
+    <t>27. Working with Guards</t>
+  </si>
+  <si>
+    <t>28. Handling the 404 Case (Unknown Routes)</t>
+  </si>
+  <si>
+    <t>29. Loading Routes Lazily</t>
+  </si>
+  <si>
+    <t>30. Routing and Server Deployment</t>
+  </si>
+  <si>
+    <t>32. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Building the Checkout Container</t>
+  </si>
+  <si>
+    <t>3. Setting Up Routing &amp; Routes</t>
+  </si>
+  <si>
+    <t>4. Navigating to the Checkout Page</t>
+  </si>
+  <si>
+    <t>5. Navigating Back &amp; To Next Page</t>
+  </si>
+  <si>
+    <t>6. Passing Ingredients via Query Params</t>
+  </si>
+  <si>
+    <t>7. Navigating to the Contact Data Component</t>
+  </si>
+  <si>
+    <t>8. Order Submission &amp; Passing Data Between Pages</t>
+  </si>
+  <si>
+    <t>9. Adding an Orders Page</t>
+  </si>
+  <si>
+    <t>10. Implementing Navigation Links</t>
+  </si>
+  <si>
+    <t>11. Fetching Orders</t>
+  </si>
+  <si>
+    <t>12. Outputting the Orders</t>
+  </si>
+  <si>
+    <t>13. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Analyzing the App</t>
+  </si>
+  <si>
+    <t>3. Creating a Custom Dynamic Input Component</t>
+  </si>
+  <si>
+    <t>4. Setting Up a JS Config for the Form</t>
+  </si>
+  <si>
+    <t>5. Dynamically Create Inputs based on JS Config</t>
+  </si>
+  <si>
+    <t>6. Adding a Dropdown Component</t>
+  </si>
+  <si>
+    <t>7. Handling User Input</t>
+  </si>
+  <si>
+    <t>8. Handling Form Submission</t>
+  </si>
+  <si>
+    <t>9. Adding Custom Form Validation</t>
+  </si>
+  <si>
+    <t>10. Fixing a Common Validation Gotcha</t>
+  </si>
+  <si>
+    <t>11. Adding Validation Feedback</t>
+  </si>
+  <si>
+    <t>12. Improving Visual Feedback</t>
+  </si>
+  <si>
+    <t>14. Handling Overall Form Validity</t>
+  </si>
+  <si>
+    <t>15. Fixing a Bug</t>
+  </si>
+  <si>
+    <t>16. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Understanding State</t>
+  </si>
+  <si>
+    <t>3. The Complexity of Managing State</t>
+  </si>
+  <si>
+    <t>4. Understanding the Redux Flow</t>
+  </si>
+  <si>
+    <t>5. Setting Up Reducer and Store</t>
+  </si>
+  <si>
+    <t>6. Dispatching Actions</t>
+  </si>
+  <si>
+    <t>7. Adding Subscriptions</t>
+  </si>
+  <si>
+    <t>8. Connecting React to Redux</t>
+  </si>
+  <si>
+    <t>9. Connecting the Store to React</t>
+  </si>
+  <si>
+    <t>10. Dispatching Actions from within the Component</t>
+  </si>
+  <si>
+    <t>12. Passing and Retrieving Data with Action</t>
+  </si>
+  <si>
+    <t>13. Switch-Case in the Reducer</t>
+  </si>
+  <si>
+    <t>14. Updating State Immutably</t>
+  </si>
+  <si>
+    <t>15. Updating Arrays Immutably</t>
+  </si>
+  <si>
+    <t>17. Outsourcing Action Types</t>
+  </si>
+  <si>
+    <t>18. Combining Multiple Reducers</t>
+  </si>
+  <si>
+    <t>19. Understanding State Types</t>
+  </si>
+  <si>
+    <t>21. Combining Local UI State and Redux</t>
+  </si>
+  <si>
+    <t>22. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Installing Redux and React Redux</t>
+  </si>
+  <si>
+    <t>3. Basic Redux Setup</t>
+  </si>
+  <si>
+    <t>4. Finishing the Reducer for Ingredients</t>
+  </si>
+  <si>
+    <t>5. Connecting the Burger Builder Container to our Store</t>
+  </si>
+  <si>
+    <t>6. Working on the Total Price Calculation</t>
+  </si>
+  <si>
+    <t>7. Redux &amp; UI State</t>
+  </si>
+  <si>
+    <t>8. Adjusting Checkout and Contact Data</t>
+  </si>
+  <si>
+    <t>9. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Adding  Middleware</t>
+  </si>
+  <si>
+    <t>3. Using the Redux Devtools</t>
+  </si>
+  <si>
+    <t>4. Executing Asynchronous Code - Introduction</t>
+  </si>
+  <si>
+    <t>5. Introducing Action Creators</t>
+  </si>
+  <si>
+    <t>6. Action Creators &amp; Async Code</t>
+  </si>
+  <si>
+    <t>7. Handling Asynchronous Code</t>
+  </si>
+  <si>
+    <t>8. Restructuring Actions</t>
+  </si>
+  <si>
+    <t>9. Where to Put Data Transforming Logic</t>
+  </si>
+  <si>
+    <t>10. Using Action Creators and Get State</t>
+  </si>
+  <si>
+    <t>11. Using Utility Functions</t>
+  </si>
+  <si>
+    <t>12. A Leaner Switch Case Statement</t>
+  </si>
+  <si>
+    <t>13. An Alternative Folder Structure</t>
+  </si>
+  <si>
+    <t>14. Diving Much Deeper</t>
+  </si>
+  <si>
+    <t>15. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Installing the Redux Devtools</t>
+  </si>
+  <si>
+    <t>3. Preparing the Folder Structure</t>
+  </si>
+  <si>
+    <t>4. Creating Action Creators</t>
+  </si>
+  <si>
+    <t>5. Executing Asynchronous Code</t>
+  </si>
+  <si>
+    <t>6. Fetching Ingredients Asynchronously</t>
+  </si>
+  <si>
+    <t>7. Initializing Ingredients in the BurgerBuilder</t>
+  </si>
+  <si>
+    <t>8. Changing the Order of our Ingredients Manually</t>
+  </si>
+  <si>
+    <t>9. Adding Order Actions</t>
+  </si>
+  <si>
+    <t>10. Connecting Contact Data Container &amp; Actions</t>
+  </si>
+  <si>
+    <t>11. The Order Reducer</t>
+  </si>
+  <si>
+    <t>12. Working on Order Actions</t>
+  </si>
+  <si>
+    <t>13. Redirect to Improve UX</t>
+  </si>
+  <si>
+    <t>14. Combining Reducers</t>
+  </si>
+  <si>
+    <t>15. Handling Purchases &amp; Updating the UI</t>
+  </si>
+  <si>
+    <t>16. Resetting the Price after Purchases</t>
+  </si>
+  <si>
+    <t>17. Fetching Orders (via Redux)</t>
+  </si>
+  <si>
+    <t>18. Checking our Implemented Functionalities</t>
+  </si>
+  <si>
+    <t>19. Refactoring Reducers</t>
+  </si>
+  <si>
+    <t>20. Refactoring Reducers Continued</t>
+  </si>
+  <si>
+    <t>21. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Understanding Authentication in Single Page Applications</t>
+  </si>
+  <si>
+    <t>3. Required App Adjustments</t>
+  </si>
+  <si>
+    <t>4. Adding an Auth Form</t>
+  </si>
+  <si>
+    <t>5. Adding Actions</t>
+  </si>
+  <si>
+    <t>6. Getting a Token from the Backend</t>
+  </si>
+  <si>
+    <t>7. Adding Sign-In</t>
+  </si>
+  <si>
+    <t>8. Storing the Token</t>
+  </si>
+  <si>
+    <t>9. Adding a Spinner</t>
+  </si>
+  <si>
+    <t>10. Logging Users Out</t>
+  </si>
+  <si>
+    <t>11. Accessing Protected Resources</t>
+  </si>
+  <si>
+    <t>12. Updating the UI Depending on Auth State</t>
+  </si>
+  <si>
+    <t>13. Adding a Logout Link</t>
+  </si>
+  <si>
+    <t>14. Forwarding Unauthenticated Users</t>
+  </si>
+  <si>
+    <t>15. Redirecting the User to the Checkout Page</t>
+  </si>
+  <si>
+    <t>16. Persistent Auth State with localStorage</t>
+  </si>
+  <si>
+    <t>17. Fixing Connect + Routing Errors</t>
+  </si>
+  <si>
+    <t>18. Ensuring App Security</t>
+  </si>
+  <si>
+    <t>19. Guarding Routes</t>
+  </si>
+  <si>
+    <t>20. Displaying User Specific Orders</t>
+  </si>
+  <si>
+    <t>2. Fixing the Redirect to the Frontpage</t>
+  </si>
+  <si>
+    <t>3. Using updateObject in the Entire App</t>
+  </si>
+  <si>
+    <t>4. Sharing the Validation Method</t>
+  </si>
+  <si>
+    <t>5. Using Environment Variables</t>
+  </si>
+  <si>
+    <t>6. Removing console.log()s</t>
+  </si>
+  <si>
+    <t>7. Adding Lazy Loading</t>
+  </si>
+  <si>
+    <t>8. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. What is Testing</t>
+  </si>
+  <si>
+    <t>3. Required Testing Tools</t>
+  </si>
+  <si>
+    <t>4. What To Test</t>
+  </si>
+  <si>
+    <t>5. Writing our First Test</t>
+  </si>
+  <si>
+    <t>6. Testing Components Continued</t>
+  </si>
+  <si>
+    <t>7. Jest and Enzyme Documentations</t>
+  </si>
+  <si>
+    <t>8. Testing Components Correctly</t>
+  </si>
+  <si>
+    <t>9. Testing Containers</t>
+  </si>
+  <si>
+    <t>10. How to Test Redux</t>
+  </si>
+  <si>
+    <t>2. Deployment Steps</t>
+  </si>
+  <si>
+    <t>3. Building the Project</t>
+  </si>
+  <si>
+    <t>4. Example Deploying on Firebase</t>
+  </si>
+  <si>
+    <t>5. Wrap Up</t>
+  </si>
+  <si>
+    <t>2. Introducing Webpack</t>
+  </si>
+  <si>
+    <t>3. How Webpack works</t>
+  </si>
+  <si>
+    <t>4. Basic Workflow Requirements</t>
+  </si>
+  <si>
+    <t>5. Project &amp; npm Setup</t>
+  </si>
+  <si>
+    <t>6. Creating a Basic Folder &amp; File Structure</t>
+  </si>
+  <si>
+    <t>7. Creating the Basic React Application</t>
+  </si>
+  <si>
+    <t>8. Installing Production Dependencies</t>
+  </si>
+  <si>
+    <t>9. Setting Up the Basic Webpack Config</t>
+  </si>
+  <si>
+    <t>10. Adding File Rules</t>
+  </si>
+  <si>
+    <t>11. Introducing Babel</t>
+  </si>
+  <si>
+    <t>12. Adding CSS File Support</t>
+  </si>
+  <si>
+    <t>13. Creating Rules for Images</t>
+  </si>
+  <si>
+    <t>14. Lazy Loading</t>
+  </si>
+  <si>
+    <t>15. Injecting the Script into the index.html File</t>
+  </si>
+  <si>
+    <t>16. Creating the Production Workflow</t>
+  </si>
+  <si>
+    <t>2. Understanding Server Side Rendering</t>
+  </si>
+  <si>
+    <t>3. Setting Up a Project</t>
+  </si>
+  <si>
+    <t>4. Understanding the Basics</t>
+  </si>
+  <si>
+    <t>5. Next.js &amp; Components &amp; Pages</t>
+  </si>
+  <si>
+    <t>6. Styling our App in Next.js</t>
+  </si>
+  <si>
+    <t>7. Handling (404) Errors</t>
+  </si>
+  <si>
+    <t>8. A Special Lifecyle Hook</t>
+  </si>
+  <si>
+    <t>9. Deploying our App</t>
+  </si>
+  <si>
+    <t>2. Preparing the Demo Project</t>
+  </si>
+  <si>
+    <t>3. Using CSS Transitions</t>
+  </si>
+  <si>
+    <t>4. Using CSS Animations</t>
+  </si>
+  <si>
+    <t>5. CSS  Transition &amp; Animations Limitations</t>
+  </si>
+  <si>
+    <t>6. Using ReactTransitionGroup</t>
+  </si>
+  <si>
+    <t>7. Using the Transition Component</t>
+  </si>
+  <si>
+    <t>8. Wrapping the Transition Component</t>
+  </si>
+  <si>
+    <t>9. Animation Timings</t>
+  </si>
+  <si>
+    <t>10. Transition Events</t>
+  </si>
+  <si>
+    <t>11. The CSSTransition Component</t>
+  </si>
+  <si>
+    <t>12. Customizing CSS Classnames</t>
+  </si>
+  <si>
+    <t>13. Animating Lists</t>
+  </si>
+  <si>
+    <t>14. Alternative Animation Packages</t>
+  </si>
+  <si>
+    <t>2. Installing Redux Saga</t>
+  </si>
+  <si>
+    <t>3. Creating our First Saga</t>
+  </si>
+  <si>
+    <t>4. Hooking the Saga Up (to the Store and Actions)</t>
+  </si>
+  <si>
+    <t>5. Moving Logic from the Action Creator to a Saga</t>
+  </si>
+  <si>
+    <t>6. Moving More Logic Into Sagas</t>
+  </si>
+  <si>
+    <t>7. Handling Authentication with a Saga</t>
+  </si>
+  <si>
+    <t>8. Handling Auto-Sign-In with a Saga</t>
+  </si>
+  <si>
+    <t>9. Moving the BurgerBuilder Side Effects into a Saga</t>
+  </si>
+  <si>
+    <t>10. Moving the Orders Side Effects into Sagas</t>
+  </si>
+  <si>
+    <t>11. Why Sagas can be Helpful</t>
+  </si>
+  <si>
+    <t>12. Diving Deeper into Sagas</t>
+  </si>
+  <si>
+    <t>1. Building the Burger CSS Code</t>
+  </si>
+  <si>
+    <t>2. React Rocks! Where to find more Examples</t>
+  </si>
+  <si>
+    <t>3. More Inspiration Real-World Projects Built with React</t>
+  </si>
+  <si>
+    <t>4. Static React Apps with Gatsby.js</t>
+  </si>
+  <si>
+    <t>5. Introducing React Native</t>
+  </si>
+  <si>
+    <t>6. Component Libraries (Example Material UI)</t>
+  </si>
+  <si>
+    <t>7. Smaller Apps with Preact</t>
+  </si>
+  <si>
+    <t>8. Comparing React with Preact</t>
+  </si>
+  <si>
+    <t>9. Congratulations</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -1537,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322B2238-9126-4447-A494-5C8BA9F1223A}">
   <dimension ref="A1:L405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132:D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,19 +1554,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>377</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>379</v>
+        <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>379</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1573,7 +1576,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3">
         <v>7.5694444444444439E-2</v>
@@ -1590,7 +1593,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3">
         <v>0.12222222222222223</v>
@@ -1605,7 +1608,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3">
         <v>0.10277777777777779</v>
@@ -1620,7 +1623,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3">
         <v>0.62986111111111109</v>
@@ -1635,7 +1638,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3">
         <v>8.5416666666666655E-2</v>
@@ -1650,7 +1653,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3">
         <v>4.9305555555555554E-2</v>
@@ -1665,7 +1668,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3">
         <v>0.15138888888888888</v>
@@ -1680,7 +1683,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3">
         <v>0.31111111111111112</v>
@@ -1695,7 +1698,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3">
         <v>0.10347222222222223</v>
@@ -1710,7 +1713,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3"/>
       <c r="L12" s="1">
@@ -1720,7 +1723,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3">
         <v>6.6666666666666666E-2</v>
@@ -1735,7 +1738,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3">
         <v>0.12847222222222224</v>
@@ -1750,7 +1753,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3">
         <v>0.22708333333333333</v>
@@ -1765,7 +1768,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3">
         <v>0.19652777777777777</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3">
         <v>0.19236111111111112</v>
@@ -1795,7 +1798,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3">
         <v>0.12708333333333333</v>
@@ -1810,7 +1813,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3">
         <v>0.27083333333333331</v>
@@ -1825,7 +1828,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3">
         <v>0.13472222222222222</v>
@@ -1840,7 +1843,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3">
         <v>0.18472222222222223</v>
@@ -1855,7 +1858,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3">
         <v>0.11527777777777777</v>
@@ -1870,7 +1873,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3">
         <v>3.6111111111111115E-2</v>
@@ -1885,7 +1888,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
         <v>0</v>
@@ -1897,7 +1900,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3">
         <v>2.7083333333333334E-2</v>
@@ -1912,7 +1915,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3">
         <v>0.33333333333333331</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3">
         <v>0.22361111111111109</v>
@@ -1942,7 +1945,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3">
         <v>0.34097222222222223</v>
@@ -1957,7 +1960,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3">
         <v>0.23055555555555554</v>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3">
         <v>0.23472222222222219</v>
@@ -1987,7 +1990,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3">
         <v>0.13125000000000001</v>
@@ -2002,7 +2005,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3">
         <v>0.33958333333333335</v>
@@ -2017,7 +2020,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3">
         <v>7.4305555555555555E-2</v>
@@ -2032,7 +2035,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3">
         <v>0.12638888888888888</v>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3">
         <v>0.17152777777777775</v>
@@ -2062,7 +2065,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C36" s="3">
         <v>0.12222222222222223</v>
@@ -2077,7 +2080,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C37" s="3">
         <v>0.28680555555555554</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C38" s="3">
         <v>0.15625</v>
@@ -2107,7 +2110,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C39" s="3">
         <v>0.20555555555555557</v>
@@ -2122,7 +2125,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3">
         <v>0.14791666666666667</v>
@@ -2137,7 +2140,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C41" s="3">
         <v>0.2951388888888889</v>
@@ -2152,7 +2155,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C42" s="3">
         <v>0.28541666666666665</v>
@@ -2167,7 +2170,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C43" s="3">
         <v>0.22777777777777777</v>
@@ -2182,7 +2185,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C44" s="3">
         <v>0.17708333333333334</v>
@@ -2197,7 +2200,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -2209,7 +2212,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3">
         <v>4.3750000000000004E-2</v>
@@ -2224,7 +2227,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C47" s="3">
         <v>0.4236111111111111</v>
@@ -2239,7 +2242,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C48" s="3">
         <v>0.20069444444444443</v>
@@ -2254,7 +2257,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C49" s="3">
         <v>6.3194444444444442E-2</v>
@@ -2269,7 +2272,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C50" s="3">
         <v>0.23055555555555554</v>
@@ -2284,7 +2287,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C51" s="3">
         <v>0.17500000000000002</v>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C52" s="3">
         <v>0.11041666666666666</v>
@@ -2314,7 +2317,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C53" s="3">
         <v>0.1763888888888889</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C54" s="3">
         <v>0.31527777777777777</v>
@@ -2344,7 +2347,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C55" s="3">
         <v>8.0555555555555561E-2</v>
@@ -2359,7 +2362,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C57" s="3">
         <v>5.486111111111111E-2</v>
@@ -2386,7 +2389,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C58" s="3">
         <v>8.1944444444444445E-2</v>
@@ -2401,7 +2404,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C59" s="3">
         <v>0.1388888888888889</v>
@@ -2416,7 +2419,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C60" s="3">
         <v>0.29791666666666666</v>
@@ -2431,7 +2434,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C61" s="3">
         <v>0.29166666666666669</v>
@@ -2446,7 +2449,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C62" s="3">
         <v>0.20972222222222223</v>
@@ -2461,7 +2464,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C63" s="3">
         <v>0.57638888888888895</v>
@@ -2476,7 +2479,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C64" s="3">
         <v>0.21388888888888891</v>
@@ -2491,7 +2494,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C65" s="3">
         <v>8.1944444444444445E-2</v>
@@ -2506,7 +2509,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C66" s="3">
         <v>0</v>
@@ -2518,7 +2521,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C67" s="3">
         <v>3.8194444444444441E-2</v>
@@ -2533,7 +2536,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C68" s="3">
         <v>0.10902777777777778</v>
@@ -2548,7 +2551,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C69" s="3">
         <v>0.17847222222222223</v>
@@ -2563,7 +2566,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C70" s="3">
         <v>9.5833333333333326E-2</v>
@@ -2578,7 +2581,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C71" s="3">
         <v>0.3430555555555555</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C72" s="3">
         <v>3.9583333333333331E-2</v>
@@ -2608,7 +2611,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C73" s="3">
         <v>0</v>
@@ -2620,7 +2623,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C74" s="3">
         <v>2.9861111111111113E-2</v>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C75" s="3">
         <v>0.30833333333333335</v>
@@ -2650,7 +2653,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C76" s="3">
         <v>0.6479166666666667</v>
@@ -2665,7 +2668,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C77" s="3">
         <v>0.30555555555555552</v>
@@ -2680,7 +2683,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C78" s="3">
         <v>0.29166666666666669</v>
@@ -2695,7 +2698,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C79" s="3">
         <v>0.12083333333333333</v>
@@ -2710,7 +2713,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C80" s="3">
         <v>0.35694444444444445</v>
@@ -2725,7 +2728,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3">
         <v>0.16319444444444445</v>
@@ -2740,7 +2743,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C82" s="3">
         <v>0.33749999999999997</v>
@@ -2755,7 +2758,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C83" s="3">
         <v>0.12847222222222224</v>
@@ -2770,7 +2773,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C84" s="3">
         <v>0.43263888888888885</v>
@@ -2785,7 +2788,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C85" s="3">
         <v>0.10208333333333335</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C86" s="3">
         <v>0.18541666666666667</v>
@@ -2815,7 +2818,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C87" s="3">
         <v>0.38055555555555554</v>
@@ -2830,7 +2833,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C88" s="3">
         <v>0.17777777777777778</v>
@@ -2845,7 +2848,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C89" s="3">
         <v>0.23680555555555557</v>
@@ -2860,7 +2863,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C90" s="3">
         <v>0.17152777777777775</v>
@@ -2875,13 +2878,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C91" s="3">
         <v>0.18124999999999999</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="K91" s="2">
         <v>261</v>
@@ -2893,13 +2896,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C92" s="3">
         <v>0.25486111111111109</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="K92" s="2">
         <v>367</v>
@@ -2911,7 +2914,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C93" s="3">
         <v>0.20625000000000002</v>
@@ -2926,7 +2929,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C94" s="3">
         <v>6.3888888888888884E-2</v>
@@ -2941,7 +2944,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C95" s="3">
         <v>0</v>
@@ -2953,10 +2956,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C96" s="3">
         <v>4.027777777777778E-2</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K96" s="2">
         <v>58</v>
@@ -2968,10 +2974,13 @@
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C97" s="3">
         <v>0.10555555555555556</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K97" s="2">
         <v>152</v>
@@ -2983,10 +2992,13 @@
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C98" s="3">
         <v>0.45624999999999999</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K98" s="2">
         <v>657</v>
@@ -2998,10 +3010,13 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C99" s="3">
         <v>0.17569444444444446</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K99" s="2">
         <v>253</v>
@@ -3013,10 +3028,13 @@
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C100" s="3">
         <v>0.20138888888888887</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K100" s="2">
         <v>290</v>
@@ -3028,10 +3046,13 @@
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C101" s="3">
         <v>0.41319444444444442</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K101" s="2">
         <v>595</v>
@@ -3043,10 +3064,13 @@
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C102" s="3">
         <v>0.20347222222222219</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K102" s="2">
         <v>293</v>
@@ -3058,10 +3082,13 @@
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C103" s="3">
         <v>0.3527777777777778</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K103" s="2">
         <v>508</v>
@@ -3073,10 +3100,13 @@
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C104" s="3">
         <v>0.14027777777777778</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K104" s="2">
         <v>202</v>
@@ -3088,10 +3118,13 @@
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C105" s="3">
         <v>0.28472222222222221</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K105" s="2">
         <v>410</v>
@@ -3103,10 +3136,13 @@
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C106" s="3">
         <v>0.4055555555555555</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K106" s="2">
         <v>584</v>
@@ -3118,10 +3154,13 @@
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C107" s="3">
         <v>0.21597222222222223</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K107" s="2">
         <v>311</v>
@@ -3133,10 +3172,13 @@
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C108" s="3">
         <v>0.31041666666666667</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K108" s="2">
         <v>447</v>
@@ -3148,10 +3190,13 @@
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C109" s="3">
         <v>0.16874999999999998</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K109" s="2">
         <v>243</v>
@@ -3163,10 +3208,13 @@
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C110" s="3">
         <v>0.34861111111111115</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K110" s="2">
         <v>502</v>
@@ -3178,10 +3226,13 @@
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C111" s="3">
         <v>0.3125</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K111" s="2">
         <v>450</v>
@@ -3193,10 +3244,13 @@
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C112" s="3">
         <v>0.10347222222222223</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K112" s="2">
         <v>149</v>
@@ -3208,10 +3262,13 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C113" s="3">
         <v>0.44375000000000003</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K113" s="2">
         <v>639</v>
@@ -3223,10 +3280,13 @@
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C114" s="3">
         <v>0.58194444444444449</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K114" s="2">
         <v>838</v>
@@ -3238,10 +3298,13 @@
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C115" s="3">
         <v>0.29097222222222224</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K115" s="2">
         <v>419</v>
@@ -3253,10 +3316,13 @@
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C116" s="3">
         <v>0.34583333333333338</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K116" s="2">
         <v>498</v>
@@ -3268,10 +3334,13 @@
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C117" s="3">
         <v>0.1986111111111111</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K117" s="2">
         <v>286</v>
@@ -3283,10 +3352,13 @@
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C118" s="3">
         <v>0.20416666666666669</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K118" s="2">
         <v>294</v>
@@ -3298,10 +3370,13 @@
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C119" s="3">
         <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K119" s="2">
         <v>125</v>
@@ -3313,10 +3388,13 @@
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C120" s="3">
         <v>0.38263888888888892</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K120" s="2">
         <v>551</v>
@@ -3328,10 +3406,13 @@
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C121" s="3">
         <v>0.27777777777777779</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K121" s="2">
         <v>400</v>
@@ -3343,10 +3424,13 @@
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C122" s="3">
         <v>0.47638888888888892</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K122" s="2">
         <v>686</v>
@@ -3358,10 +3442,13 @@
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C123" s="3">
         <v>0.32222222222222224</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K123" s="2">
         <v>464</v>
@@ -3373,10 +3460,13 @@
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C124" s="3">
         <v>0.19027777777777777</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K124" s="2">
         <v>274</v>
@@ -3388,10 +3478,13 @@
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C125" s="3">
         <v>0.30416666666666664</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K125" s="2">
         <v>438</v>
@@ -3403,10 +3496,13 @@
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C126" s="3">
         <v>0.38263888888888892</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K126" s="2">
         <v>551</v>
@@ -3418,10 +3514,13 @@
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C127" s="3">
         <v>0.26944444444444443</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K127" s="2">
         <v>388</v>
@@ -3433,10 +3532,13 @@
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C128" s="3">
         <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K128" s="2">
         <v>140</v>
@@ -3448,10 +3550,13 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C129" s="3">
         <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K129" s="2">
         <v>71</v>
@@ -3463,10 +3568,13 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C130" s="3">
         <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K130" s="2">
         <v>92</v>
@@ -3478,10 +3586,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C131" s="3">
         <v>0.34027777777777773</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K131" s="2">
         <v>490</v>
@@ -3493,10 +3604,13 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C132" s="3">
         <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K132" s="2">
         <v>108</v>
@@ -3508,10 +3622,13 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="C133" s="3">
         <v>0.20625000000000002</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K133" s="2">
         <v>297</v>
@@ -3523,10 +3640,13 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C134" s="3">
         <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K134" s="2">
         <v>109</v>
@@ -3538,7 +3658,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="C135" s="3">
         <v>0</v>
@@ -3550,7 +3670,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C136" s="3">
         <v>4.3750000000000004E-2</v>
@@ -3565,7 +3685,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C137" s="3">
         <v>6.5972222222222224E-2</v>
@@ -3580,7 +3700,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C138" s="3">
         <v>0.17083333333333331</v>
@@ -3595,7 +3715,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C139" s="3">
         <v>0.22847222222222222</v>
@@ -3610,7 +3730,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="C140" s="3">
         <v>0.15694444444444444</v>
@@ -3625,7 +3745,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C141" s="3">
         <v>0.1111111111111111</v>
@@ -3640,7 +3760,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="C142" s="3">
         <v>0.1673611111111111</v>
@@ -3655,7 +3775,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C143" s="3">
         <v>0.33055555555555555</v>
@@ -3670,7 +3790,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C144" s="3">
         <v>0.16111111111111112</v>
@@ -3685,7 +3805,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C145" s="3">
         <v>9.930555555555555E-2</v>
@@ -3700,7 +3820,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C146" s="3">
         <v>2.2916666666666669E-2</v>
@@ -3715,7 +3835,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C147" s="3">
         <v>0.14097222222222222</v>
@@ -3730,7 +3850,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C148" s="3">
         <v>0.26250000000000001</v>
@@ -3745,7 +3865,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C149" s="3">
         <v>0.13194444444444445</v>
@@ -3760,7 +3880,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C150" s="3">
         <v>0.21041666666666667</v>
@@ -3775,7 +3895,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C151" s="3">
         <v>3.2638888888888891E-2</v>
@@ -3790,7 +3910,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="C152" s="3">
         <v>0</v>
@@ -3802,7 +3922,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C153" s="3">
         <v>7.7777777777777779E-2</v>
@@ -3817,7 +3937,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C154" s="3">
         <v>0.14375000000000002</v>
@@ -3832,7 +3952,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C155" s="3">
         <v>0.1125</v>
@@ -3847,7 +3967,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="C156" s="3">
         <v>0.32361111111111113</v>
@@ -3862,7 +3982,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="C157" s="3">
         <v>0.3888888888888889</v>
@@ -3877,7 +3997,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C158" s="3">
         <v>0.48819444444444443</v>
@@ -3892,7 +4012,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C159" s="3">
         <v>0.45694444444444443</v>
@@ -3907,7 +4027,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C160" s="3">
         <v>0.33749999999999997</v>
@@ -3922,7 +4042,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="C161" s="3">
         <v>0</v>
@@ -3934,7 +4054,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C162" s="3">
         <v>3.5416666666666666E-2</v>
@@ -3949,7 +4069,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C163" s="3">
         <v>0.11319444444444444</v>
@@ -3964,7 +4084,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C164" s="3">
         <v>0.18194444444444444</v>
@@ -3979,7 +4099,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="C165" s="3">
         <v>0.1986111111111111</v>
@@ -3994,7 +4114,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C166" s="3">
         <v>0.21736111111111112</v>
@@ -4009,7 +4129,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C167" s="3">
         <v>0.22083333333333333</v>
@@ -4024,7 +4144,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C168" s="3">
         <v>8.1250000000000003E-2</v>
@@ -4039,7 +4159,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C169" s="3">
         <v>9.5138888888888884E-2</v>
@@ -4054,7 +4174,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C170" s="3">
         <v>0.16874999999999998</v>
@@ -4069,7 +4189,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C171" s="3">
         <v>0.13333333333333333</v>
@@ -4084,7 +4204,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C172" s="3">
         <v>0.15555555555555556</v>
@@ -4099,7 +4219,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C173" s="3">
         <v>0.10694444444444444</v>
@@ -4114,7 +4234,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C174" s="3">
         <v>0.24652777777777779</v>
@@ -4129,7 +4249,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C175" s="3">
         <v>0.28750000000000003</v>
@@ -4144,7 +4264,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C176" s="3">
         <v>0.12708333333333333</v>
@@ -4159,7 +4279,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C177" s="3">
         <v>0.14791666666666667</v>
@@ -4174,7 +4294,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C178" s="3">
         <v>0.1423611111111111</v>
@@ -4189,7 +4309,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C179" s="3">
         <v>9.8611111111111108E-2</v>
@@ -4204,7 +4324,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C180" s="3">
         <v>0.3298611111111111</v>
@@ -4219,7 +4339,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C181" s="3">
         <v>0.19305555555555554</v>
@@ -4234,7 +4354,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C182" s="3">
         <v>0.11458333333333333</v>
@@ -4249,7 +4369,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C183" s="3">
         <v>0.11597222222222221</v>
@@ -4264,7 +4384,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C184" s="3">
         <v>0.1173611111111111</v>
@@ -4279,7 +4399,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C185" s="3">
         <v>0.15694444444444444</v>
@@ -4294,7 +4414,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C186" s="3">
         <v>0.12638888888888888</v>
@@ -4309,7 +4429,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C187" s="3">
         <v>0.49236111111111108</v>
@@ -4324,7 +4444,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C188" s="3">
         <v>0.17986111111111111</v>
@@ -4339,7 +4459,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C189" s="3">
         <v>3.4027777777777775E-2</v>
@@ -4354,7 +4474,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="C190" s="3">
         <v>0</v>
@@ -4366,7 +4486,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C191" s="3">
         <v>6.5972222222222224E-2</v>
@@ -4381,7 +4501,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C192" s="3">
         <v>0.4770833333333333</v>
@@ -4396,7 +4516,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C193" s="3">
         <v>0.19513888888888889</v>
@@ -4411,7 +4531,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C194" s="3">
         <v>0.20208333333333331</v>
@@ -4426,7 +4546,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C195" s="3">
         <v>0.14791666666666667</v>
@@ -4441,7 +4561,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C196" s="3">
         <v>0.22708333333333333</v>
@@ -4456,7 +4576,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C197" s="3">
         <v>0.39861111111111108</v>
@@ -4471,7 +4591,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C198" s="3">
         <v>0.48888888888888887</v>
@@ -4486,7 +4606,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C199" s="3">
         <v>0.23194444444444443</v>
@@ -4501,7 +4621,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C200" s="3">
         <v>0.23263888888888887</v>
@@ -4516,7 +4636,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C201" s="3">
         <v>0.25277777777777777</v>
@@ -4531,7 +4651,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C202" s="3">
         <v>0.31527777777777777</v>
@@ -4546,7 +4666,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C203" s="3">
         <v>4.6527777777777779E-2</v>
@@ -4561,7 +4681,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="C204" s="3">
         <v>0</v>
@@ -4573,7 +4693,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C205" s="3">
         <v>3.4027777777777775E-2</v>
@@ -4588,7 +4708,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C206" s="3">
         <v>7.6388888888888895E-2</v>
@@ -4603,7 +4723,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C207" s="3">
         <v>0.47916666666666669</v>
@@ -4618,7 +4738,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C208" s="3">
         <v>0.31527777777777777</v>
@@ -4633,7 +4753,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C209" s="3">
         <v>0.22430555555555556</v>
@@ -4648,7 +4768,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C210" s="3">
         <v>0.16111111111111112</v>
@@ -4663,7 +4783,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="C211" s="3">
         <v>0.3215277777777778</v>
@@ -4678,7 +4798,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C212" s="3">
         <v>0.17430555555555557</v>
@@ -4693,7 +4813,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C213" s="3">
         <v>0.33958333333333335</v>
@@ -4708,7 +4828,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C214" s="3">
         <v>5.4166666666666669E-2</v>
@@ -4723,7 +4843,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C215" s="3">
         <v>0.21666666666666667</v>
@@ -4738,7 +4858,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C216" s="3">
         <v>9.5833333333333326E-2</v>
@@ -4753,7 +4873,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C217" s="3">
         <v>0.31597222222222221</v>
@@ -4768,7 +4888,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="C218" s="3">
         <v>5.9722222222222225E-2</v>
@@ -4783,7 +4903,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C219" s="3">
         <v>8.9583333333333334E-2</v>
@@ -4798,7 +4918,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="C220" s="3">
         <v>0</v>
@@ -4810,7 +4930,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C221" s="3">
         <v>4.2361111111111106E-2</v>
@@ -4825,7 +4945,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C222" s="3">
         <v>7.6388888888888895E-2</v>
@@ -4840,7 +4960,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C223" s="3">
         <v>0.1125</v>
@@ -4855,7 +4975,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C224" s="3">
         <v>0.22013888888888888</v>
@@ -4870,7 +4990,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="C225" s="3">
         <v>0.29791666666666666</v>
@@ -4885,7 +5005,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C226" s="3">
         <v>0.28055555555555556</v>
@@ -4900,7 +5020,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="C227" s="3">
         <v>0.11597222222222221</v>
@@ -4915,7 +5035,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C228" s="3">
         <v>0.15208333333333332</v>
@@ -4930,7 +5050,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C229" s="3">
         <v>0.34652777777777777</v>
@@ -4945,7 +5065,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C230" s="3">
         <v>0.24513888888888888</v>
@@ -4960,7 +5080,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C231" s="3">
         <v>0.17083333333333331</v>
@@ -4975,7 +5095,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C232" s="3">
         <v>0.12569444444444444</v>
@@ -4990,7 +5110,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C233" s="3">
         <v>0.55555555555555558</v>
@@ -5005,7 +5125,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C234" s="3">
         <v>0.36041666666666666</v>
@@ -5020,7 +5140,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C235" s="3">
         <v>0.22152777777777777</v>
@@ -5035,7 +5155,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C236" s="3">
         <v>0.4291666666666667</v>
@@ -5050,7 +5170,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C237" s="3">
         <v>0.20138888888888887</v>
@@ -5065,7 +5185,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C238" s="3">
         <v>0.31527777777777777</v>
@@ -5080,7 +5200,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C239" s="3">
         <v>7.0833333333333331E-2</v>
@@ -5095,7 +5215,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="C240" s="3">
         <v>0</v>
@@ -5107,7 +5227,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C241" s="3">
         <v>0.22638888888888889</v>
@@ -5122,7 +5242,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C242" s="3">
         <v>0.17222222222222225</v>
@@ -5137,7 +5257,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C243" s="3">
         <v>9.0277777777777776E-2</v>
@@ -5152,7 +5272,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C244" s="3">
         <v>0.27430555555555552</v>
@@ -5167,7 +5287,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C245" s="3">
         <v>0.3979166666666667</v>
@@ -5182,7 +5302,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C246" s="3">
         <v>0.25416666666666665</v>
@@ -5197,7 +5317,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C247" s="3">
         <v>0.17222222222222225</v>
@@ -5212,7 +5332,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C248" s="3">
         <v>0.38194444444444442</v>
@@ -5227,7 +5347,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C249" s="3">
         <v>0.10972222222222222</v>
@@ -5242,7 +5362,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="C250" s="3">
         <v>0</v>
@@ -5254,7 +5374,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C251" s="3">
         <v>2.013888888888889E-2</v>
@@ -5269,7 +5389,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C252" s="3">
         <v>0.32430555555555557</v>
@@ -5284,7 +5404,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C253" s="3">
         <v>0.31388888888888888</v>
@@ -5299,7 +5419,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C254" s="3">
         <v>7.7777777777777779E-2</v>
@@ -5314,7 +5434,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C255" s="3">
         <v>0.17430555555555557</v>
@@ -5329,7 +5449,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C256" s="3">
         <v>0.2638888888888889</v>
@@ -5344,7 +5464,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C257" s="3">
         <v>0.3430555555555555</v>
@@ -5359,7 +5479,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C258" s="3">
         <v>0.28819444444444448</v>
@@ -5374,7 +5494,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C259" s="3">
         <v>0.23819444444444446</v>
@@ -5389,7 +5509,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C260" s="3">
         <v>0.14444444444444446</v>
@@ -5404,7 +5524,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C261" s="3">
         <v>0.30624999999999997</v>
@@ -5419,7 +5539,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C262" s="3">
         <v>0.13472222222222222</v>
@@ -5434,7 +5554,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C263" s="3">
         <v>9.930555555555555E-2</v>
@@ -5449,7 +5569,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C264" s="3">
         <v>8.819444444444445E-2</v>
@@ -5464,7 +5584,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C265" s="3">
         <v>4.1666666666666664E-2</v>
@@ -5479,7 +5599,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="C266" s="3">
         <v>0</v>
@@ -5491,7 +5611,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C267" s="3">
         <v>4.9999999999999996E-2</v>
@@ -5506,7 +5626,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C268" s="3">
         <v>0.12222222222222223</v>
@@ -5521,7 +5641,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C269" s="3">
         <v>0.12916666666666668</v>
@@ -5536,7 +5656,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C270" s="3">
         <v>0.26111111111111113</v>
@@ -5551,7 +5671,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C271" s="3">
         <v>0.17013888888888887</v>
@@ -5566,7 +5686,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C272" s="3">
         <v>0.3263888888888889</v>
@@ -5581,7 +5701,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C273" s="3">
         <v>0.22152777777777777</v>
@@ -5596,7 +5716,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C274" s="3">
         <v>9.1666666666666674E-2</v>
@@ -5611,7 +5731,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C275" s="3">
         <v>0.27777777777777779</v>
@@ -5626,7 +5746,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C276" s="3">
         <v>0.17916666666666667</v>
@@ -5641,7 +5761,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C277" s="3">
         <v>0.22916666666666666</v>
@@ -5656,7 +5776,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C278" s="3">
         <v>0.18611111111111112</v>
@@ -5671,7 +5791,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C279" s="3">
         <v>0.13055555555555556</v>
@@ -5686,7 +5806,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C280" s="3">
         <v>0.20347222222222219</v>
@@ -5701,7 +5821,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C281" s="3">
         <v>0.35694444444444445</v>
@@ -5716,7 +5836,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C282" s="3">
         <v>7.2222222222222229E-2</v>
@@ -5731,7 +5851,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C283" s="3">
         <v>0.57291666666666663</v>
@@ -5746,7 +5866,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C284" s="3">
         <v>5.7638888888888885E-2</v>
@@ -5761,7 +5881,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C285" s="3">
         <v>0.34097222222222223</v>
@@ -5776,7 +5896,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C286" s="3">
         <v>0.3298611111111111</v>
@@ -5791,7 +5911,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C287" s="3">
         <v>3.9583333333333331E-2</v>
@@ -5806,7 +5926,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="C288" s="3">
         <v>0</v>
@@ -5818,7 +5938,7 @@
     </row>
     <row r="289" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C289" s="3">
         <v>5.1388888888888894E-2</v>
@@ -5833,7 +5953,7 @@
     </row>
     <row r="290" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C290" s="3">
         <v>0.12638888888888888</v>
@@ -5848,7 +5968,7 @@
     </row>
     <row r="291" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C291" s="3">
         <v>3.6805555555555557E-2</v>
@@ -5863,7 +5983,7 @@
     </row>
     <row r="292" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C292" s="3">
         <v>0.5493055555555556</v>
@@ -5878,7 +5998,7 @@
     </row>
     <row r="293" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C293" s="3">
         <v>0.26944444444444443</v>
@@ -5893,7 +6013,7 @@
     </row>
     <row r="294" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="C294" s="3">
         <v>0.29097222222222224</v>
@@ -5908,7 +6028,7 @@
     </row>
     <row r="295" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C295" s="3">
         <v>0.22916666666666666</v>
@@ -5923,7 +6043,7 @@
     </row>
     <row r="296" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C296" s="3">
         <v>0.375</v>
@@ -5938,7 +6058,7 @@
     </row>
     <row r="297" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C297" s="3">
         <v>0.25208333333333333</v>
@@ -5953,7 +6073,7 @@
     </row>
     <row r="298" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C298" s="3">
         <v>0.28472222222222221</v>
@@ -5968,7 +6088,7 @@
     </row>
     <row r="299" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C299" s="3">
         <v>0.47013888888888888</v>
@@ -5983,7 +6103,7 @@
     </row>
     <row r="300" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C300" s="3">
         <v>0.31388888888888888</v>
@@ -5998,7 +6118,7 @@
     </row>
     <row r="301" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C301" s="3">
         <v>0.28680555555555554</v>
@@ -6013,7 +6133,7 @@
     </row>
     <row r="302" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C302" s="3">
         <v>0.34583333333333338</v>
@@ -6028,7 +6148,7 @@
     </row>
     <row r="303" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C303" s="3">
         <v>0.54999999999999993</v>
@@ -6043,7 +6163,7 @@
     </row>
     <row r="304" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C304" s="3">
         <v>0.60833333333333328</v>
@@ -6058,7 +6178,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C305" s="3">
         <v>0.2902777777777778</v>
@@ -6073,7 +6193,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C306" s="3">
         <v>0.11805555555555557</v>
@@ -6088,7 +6208,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C307" s="3">
         <v>0.23263888888888887</v>
@@ -6103,7 +6223,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C308" s="3">
         <v>0.3444444444444445</v>
@@ -6118,7 +6238,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C309" s="3">
         <v>3.0555555555555555E-2</v>
@@ -6133,7 +6253,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="C310" s="3">
         <v>0</v>
@@ -6145,7 +6265,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C311" s="3">
         <v>2.7777777777777776E-2</v>
@@ -6160,7 +6280,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C312" s="3">
         <v>0.24166666666666667</v>
@@ -6175,7 +6295,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C313" s="3">
         <v>0.28125</v>
@@ -6190,7 +6310,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C314" s="3">
         <v>9.4444444444444442E-2</v>
@@ -6205,7 +6325,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C315" s="3">
         <v>0.10833333333333334</v>
@@ -6220,7 +6340,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C316" s="3">
         <v>0.15763888888888888</v>
@@ -6235,7 +6355,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C317" s="3">
         <v>0.20694444444444446</v>
@@ -6250,7 +6370,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C318" s="3">
         <v>3.4722222222222224E-2</v>
@@ -6265,7 +6385,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="C319" s="3">
         <v>0</v>
@@ -6277,7 +6397,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C320" s="3">
         <v>4.9999999999999996E-2</v>
@@ -6292,7 +6412,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C321" s="3">
         <v>0.13055555555555556</v>
@@ -6307,7 +6427,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C322" s="3">
         <v>0.1013888888888889</v>
@@ -6322,7 +6442,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C323" s="3">
         <v>0.11805555555555557</v>
@@ -6337,7 +6457,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C324" s="3">
         <v>0.52361111111111114</v>
@@ -6352,7 +6472,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C325" s="3">
         <v>0.17013888888888887</v>
@@ -6367,7 +6487,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C326" s="3">
         <v>0.26944444444444443</v>
@@ -6382,7 +6502,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C327" s="3">
         <v>0.10277777777777779</v>
@@ -6397,7 +6517,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C328" s="3">
         <v>0.28472222222222221</v>
@@ -6412,7 +6532,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C329" s="3">
         <v>0.21458333333333335</v>
@@ -6427,7 +6547,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C330" s="3">
         <v>6.0416666666666667E-2</v>
@@ -6442,7 +6562,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="C331" s="3">
         <v>0</v>
@@ -6454,7 +6574,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C332" s="3">
         <v>2.2916666666666669E-2</v>
@@ -6469,7 +6589,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C333" s="3">
         <v>0.12361111111111112</v>
@@ -6484,7 +6604,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C334" s="3">
         <v>9.7222222222222224E-2</v>
@@ -6499,7 +6619,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C335" s="3">
         <v>0.17083333333333331</v>
@@ -6514,7 +6634,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C336" s="3">
         <v>2.9166666666666664E-2</v>
@@ -6529,7 +6649,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>314</v>
+        <v>21</v>
       </c>
       <c r="C337" s="3">
         <v>0</v>
@@ -6541,7 +6661,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C338" s="3">
         <v>5.8333333333333327E-2</v>
@@ -6556,7 +6676,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C339" s="3">
         <v>5.1388888888888894E-2</v>
@@ -6571,7 +6691,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C340" s="3">
         <v>0.1111111111111111</v>
@@ -6586,7 +6706,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C341" s="3">
         <v>6.6666666666666666E-2</v>
@@ -6601,7 +6721,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C342" s="3">
         <v>0.15763888888888888</v>
@@ -6616,7 +6736,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C343" s="3">
         <v>0.13333333333333333</v>
@@ -6631,7 +6751,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C344" s="3">
         <v>0.4548611111111111</v>
@@ -6646,7 +6766,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C345" s="3">
         <v>5.9722222222222225E-2</v>
@@ -6661,7 +6781,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C346" s="3">
         <v>0.27708333333333335</v>
@@ -6676,7 +6796,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C347" s="3">
         <v>0.13749999999999998</v>
@@ -6691,7 +6811,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C348" s="3">
         <v>0.20277777777777781</v>
@@ -6706,7 +6826,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C349" s="3">
         <v>0.26319444444444445</v>
@@ -6721,7 +6841,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C350" s="3">
         <v>0.14097222222222222</v>
@@ -6736,7 +6856,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C351" s="3">
         <v>0.21527777777777779</v>
@@ -6751,7 +6871,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C352" s="3">
         <v>0.17847222222222223</v>
@@ -6766,7 +6886,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C353" s="3">
         <v>0.23472222222222219</v>
@@ -6781,7 +6901,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C354" s="3">
         <v>4.1666666666666664E-2</v>
@@ -6796,7 +6916,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C355" s="3">
         <v>0</v>
@@ -6808,7 +6928,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C356" s="3">
         <v>4.9999999999999996E-2</v>
@@ -6823,7 +6943,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C357" s="3">
         <v>0.13749999999999998</v>
@@ -6838,7 +6958,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C358" s="3">
         <v>0.25</v>
@@ -6853,7 +6973,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C359" s="3">
         <v>0.16180555555555556</v>
@@ -6868,7 +6988,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C360" s="3">
         <v>0.11666666666666665</v>
@@ -6883,7 +7003,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C361" s="3">
         <v>0.11597222222222221</v>
@@ -6898,7 +7018,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C362" s="3">
         <v>8.4027777777777771E-2</v>
@@ -6913,7 +7033,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C363" s="3">
         <v>0.3979166666666667</v>
@@ -6928,7 +7048,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C364" s="3">
         <v>0.12430555555555556</v>
@@ -6943,7 +7063,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>339</v>
+        <v>23</v>
       </c>
       <c r="C365" s="3">
         <v>0</v>
@@ -6955,7 +7075,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C366" s="3">
         <v>4.6527777777777779E-2</v>
@@ -6970,7 +7090,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C367" s="3">
         <v>0.25833333333333336</v>
@@ -6985,7 +7105,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C368" s="3">
         <v>0.19027777777777777</v>
@@ -7000,7 +7120,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C369" s="3">
         <v>0.23055555555555554</v>
@@ -7015,7 +7135,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C370" s="3">
         <v>0.16944444444444443</v>
@@ -7030,7 +7150,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C371" s="3">
         <v>0.51388888888888895</v>
@@ -7045,7 +7165,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C372" s="3">
         <v>0.14166666666666666</v>
@@ -7060,7 +7180,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C373" s="3">
         <v>0.13680555555555554</v>
@@ -7075,7 +7195,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C374" s="3">
         <v>0.13472222222222222</v>
@@ -7090,7 +7210,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C375" s="3">
         <v>0.10625</v>
@@ -7105,7 +7225,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C376" s="3">
         <v>0.22430555555555556</v>
@@ -7120,7 +7240,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C377" s="3">
         <v>0.10486111111111111</v>
@@ -7135,7 +7255,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C378" s="3">
         <v>0.28680555555555554</v>
@@ -7150,7 +7270,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C379" s="3">
         <v>0.18680555555555556</v>
@@ -7165,7 +7285,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C380" s="3">
         <v>8.1250000000000003E-2</v>
@@ -7180,7 +7300,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>353</v>
+        <v>24</v>
       </c>
       <c r="C381" s="3">
         <v>0</v>
@@ -7192,7 +7312,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C382" s="3">
         <v>6.1805555555555558E-2</v>
@@ -7207,7 +7327,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C383" s="3">
         <v>0.1111111111111111</v>
@@ -7222,7 +7342,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C384" s="3">
         <v>0.25416666666666665</v>
@@ -7237,7 +7357,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C385" s="3">
         <v>0.19583333333333333</v>
@@ -7252,7 +7372,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C386" s="3">
         <v>0.24791666666666667</v>
@@ -7267,7 +7387,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C387" s="3">
         <v>0.41875000000000001</v>
@@ -7276,13 +7396,13 @@
         <v>603</v>
       </c>
       <c r="L387" s="1">
-        <f t="shared" ref="L387:L450" si="6">K387/86400</f>
+        <f t="shared" ref="L387:L405" si="6">K387/86400</f>
         <v>6.9791666666666665E-3</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C388" s="3">
         <v>0.46319444444444446</v>
@@ -7297,7 +7417,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C389" s="3">
         <v>0.24513888888888888</v>
@@ -7312,7 +7432,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C390" s="3">
         <v>0.29236111111111113</v>
@@ -7327,7 +7447,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C391" s="3">
         <v>0.52430555555555558</v>
@@ -7342,7 +7462,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C392" s="3">
         <v>5.347222222222222E-2</v>
@@ -7357,7 +7477,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C393" s="3">
         <v>0.28888888888888892</v>
@@ -7372,7 +7492,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>365</v>
+        <v>25</v>
       </c>
       <c r="C394" s="3">
         <v>0</v>
@@ -7384,7 +7504,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C395" s="4">
         <v>1.038888888888889</v>
@@ -7399,7 +7519,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>367</v>
+        <v>26</v>
       </c>
       <c r="C396" s="3">
         <v>0</v>
@@ -7411,7 +7531,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C397" s="3">
         <v>4.1666666666666664E-2</v>
@@ -7426,7 +7546,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C398" s="3">
         <v>5.8333333333333327E-2</v>
@@ -7441,7 +7561,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C399" s="3">
         <v>5.7638888888888885E-2</v>
@@ -7456,7 +7576,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C400" s="3">
         <v>0.10486111111111111</v>
@@ -7471,7 +7591,7 @@
     </row>
     <row r="401" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C401" s="3">
         <v>9.5138888888888884E-2</v>
@@ -7486,7 +7606,7 @@
     </row>
     <row r="402" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C402" s="3">
         <v>0.10833333333333334</v>
@@ -7501,7 +7621,7 @@
     </row>
     <row r="403" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C403" s="3">
         <v>0.13055555555555556</v>
@@ -7516,7 +7636,7 @@
     </row>
     <row r="404" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C404" s="3">
         <v>0.24305555555555555</v>
@@ -7531,7 +7651,7 @@
     </row>
     <row r="405" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C405" s="3">
         <v>5.2777777777777778E-2</v>

--- a/reactjs/React 16 - The Complete Guide/Timesheet.xlsx
+++ b/reactjs/React 16 - The Complete Guide/Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipothamse.COPART\git\docs\reactjs\React 16 - The Complete Guide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC6CEB8-AFD2-4D30-A049-D0C492611315}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F9CED-E624-4B0F-BF48-071B95C15406}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5985" xr2:uid="{0A474607-024F-417D-B984-B80057D184F8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="382">
   <si>
     <t>1. Getting Started</t>
   </si>
@@ -1540,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322B2238-9126-4447-A494-5C8BA9F1223A}">
   <dimension ref="A1:L405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132:D134"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,6 +3663,9 @@
       <c r="C135" s="3">
         <v>0</v>
       </c>
+      <c r="D135" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="L135" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3675,6 +3678,9 @@
       <c r="C136" s="3">
         <v>4.3750000000000004E-2</v>
       </c>
+      <c r="D136" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K136" s="2">
         <v>63</v>
       </c>
@@ -3690,6 +3696,9 @@
       <c r="C137" s="3">
         <v>6.5972222222222224E-2</v>
       </c>
+      <c r="D137" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K137" s="2">
         <v>95</v>
       </c>
@@ -3705,6 +3714,9 @@
       <c r="C138" s="3">
         <v>0.17083333333333331</v>
       </c>
+      <c r="D138" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K138" s="2">
         <v>246</v>
       </c>
@@ -3720,6 +3732,9 @@
       <c r="C139" s="3">
         <v>0.22847222222222222</v>
       </c>
+      <c r="D139" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K139" s="2">
         <v>329</v>
       </c>
@@ -3735,6 +3750,9 @@
       <c r="C140" s="3">
         <v>0.15694444444444444</v>
       </c>
+      <c r="D140" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K140" s="2">
         <v>226</v>
       </c>
@@ -3750,6 +3768,9 @@
       <c r="C141" s="3">
         <v>0.1111111111111111</v>
       </c>
+      <c r="D141" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K141" s="2">
         <v>160</v>
       </c>
@@ -3765,6 +3786,9 @@
       <c r="C142" s="3">
         <v>0.1673611111111111</v>
       </c>
+      <c r="D142" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K142" s="2">
         <v>241</v>
       </c>
@@ -3780,6 +3804,9 @@
       <c r="C143" s="3">
         <v>0.33055555555555555</v>
       </c>
+      <c r="D143" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K143" s="2">
         <v>476</v>
       </c>
@@ -3795,6 +3822,9 @@
       <c r="C144" s="3">
         <v>0.16111111111111112</v>
       </c>
+      <c r="D144" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K144" s="2">
         <v>232</v>
       </c>
@@ -3810,6 +3840,9 @@
       <c r="C145" s="3">
         <v>9.930555555555555E-2</v>
       </c>
+      <c r="D145" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K145" s="2">
         <v>143</v>
       </c>
@@ -3825,6 +3858,9 @@
       <c r="C146" s="3">
         <v>2.2916666666666669E-2</v>
       </c>
+      <c r="D146" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K146" s="2">
         <v>33</v>
       </c>
@@ -3840,6 +3876,9 @@
       <c r="C147" s="3">
         <v>0.14097222222222222</v>
       </c>
+      <c r="D147" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K147" s="2">
         <v>203</v>
       </c>
@@ -3855,6 +3894,9 @@
       <c r="C148" s="3">
         <v>0.26250000000000001</v>
       </c>
+      <c r="D148" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K148" s="2">
         <v>378</v>
       </c>
@@ -3870,6 +3912,9 @@
       <c r="C149" s="3">
         <v>0.13194444444444445</v>
       </c>
+      <c r="D149" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K149" s="2">
         <v>190</v>
       </c>
@@ -3885,6 +3930,9 @@
       <c r="C150" s="3">
         <v>0.21041666666666667</v>
       </c>
+      <c r="D150" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="K150" s="2">
         <v>303</v>
       </c>
@@ -3899,6 +3947,9 @@
       </c>
       <c r="C151" s="3">
         <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K151" s="2">
         <v>47</v>
